--- a/datos_productivos_luxmeter.xlsx
+++ b/datos_productivos_luxmeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6EF507-453D-4986-97B2-08E20F3F15DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B8AA0-6DAB-4542-B8B7-72F1A4E7573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7844427-B8F7-47BA-A685-86391A64810D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="7">
   <si>
     <t>Fechas</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>NKA</t>
   </si>
 </sst>
 </file>
@@ -408,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E200ED-CFC9-49C8-9F90-D05BFB27708F}">
-  <dimension ref="A1:F1561"/>
+  <dimension ref="A1:E1561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="G762" sqref="G762"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,11 +429,8 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44109</v>
       </c>
@@ -452,11 +446,8 @@
       <c r="E2">
         <v>1.0404505260298815</v>
       </c>
-      <c r="F2">
-        <v>13.528771273652188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44109</v>
       </c>
@@ -472,11 +463,8 @@
       <c r="E3">
         <v>1.1259259259259258</v>
       </c>
-      <c r="F3">
-        <v>13.599020915540047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44109</v>
       </c>
@@ -492,11 +480,8 @@
       <c r="E4">
         <v>1.0051438235168473</v>
       </c>
-      <c r="F4">
-        <v>13.351479738563098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44109</v>
       </c>
@@ -512,11 +497,8 @@
       <c r="E5">
         <v>1.0428606665602647</v>
       </c>
-      <c r="F5">
-        <v>13.770017819628489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44109</v>
       </c>
@@ -532,11 +514,8 @@
       <c r="E6">
         <v>1.0536253139803438</v>
       </c>
-      <c r="F6">
-        <v>13.038298262264739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44109</v>
       </c>
@@ -552,11 +531,8 @@
       <c r="E7">
         <v>1.1367869503853705</v>
       </c>
-      <c r="F7">
-        <v>14.443671465756456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44109</v>
       </c>
@@ -572,11 +548,8 @@
       <c r="E8">
         <v>1.0735458338584762</v>
       </c>
-      <c r="F8">
-        <v>14.290143359495627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44109</v>
       </c>
@@ -592,11 +565,8 @@
       <c r="E9">
         <v>1.1104969103508182</v>
       </c>
-      <c r="F9">
-        <v>13.587435177846062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44109</v>
       </c>
@@ -612,11 +582,8 @@
       <c r="E10">
         <v>1.1009820760118028</v>
       </c>
-      <c r="F10">
-        <v>14.031151584183904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44109</v>
       </c>
@@ -632,11 +599,8 @@
       <c r="E11">
         <v>1.0336203093987355</v>
       </c>
-      <c r="F11">
-        <v>13.366056934623737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44109</v>
       </c>
@@ -652,11 +616,8 @@
       <c r="E12">
         <v>1.0609851470455611</v>
       </c>
-      <c r="F12">
-        <v>13.323737657325951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44109</v>
       </c>
@@ -672,11 +633,8 @@
       <c r="E13">
         <v>1.0952110800314543</v>
       </c>
-      <c r="F13">
-        <v>13.362177204661085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44109</v>
       </c>
@@ -692,11 +650,8 @@
       <c r="E14">
         <v>1.07421875</v>
       </c>
-      <c r="F14">
-        <v>13.699078667394195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44109</v>
       </c>
@@ -712,11 +667,8 @@
       <c r="E15">
         <v>1.108353824409507</v>
       </c>
-      <c r="F15">
-        <v>13.258515495891823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44109</v>
       </c>
@@ -732,11 +684,8 @@
       <c r="E16">
         <v>1.1278574065993086</v>
       </c>
-      <c r="F16">
-        <v>13.396180214180813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44109</v>
       </c>
@@ -752,11 +701,8 @@
       <c r="E17">
         <v>1.0853013248686723</v>
       </c>
-      <c r="F17">
-        <v>13.373608223900114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44109</v>
       </c>
@@ -772,11 +718,8 @@
       <c r="E18">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F18">
-        <v>13.767600077243113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44109</v>
       </c>
@@ -792,11 +735,8 @@
       <c r="E19">
         <v>1.136982340338609</v>
       </c>
-      <c r="F19">
-        <v>13.559925727717793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44109</v>
       </c>
@@ -812,11 +752,8 @@
       <c r="E20">
         <v>1.2464635696420516</v>
       </c>
-      <c r="F20">
-        <v>13.131027433148903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44109</v>
       </c>
@@ -832,11 +769,8 @@
       <c r="E21">
         <v>1.025390625</v>
       </c>
-      <c r="F21">
-        <v>13.37164879871356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44109</v>
       </c>
@@ -852,11 +786,8 @@
       <c r="E22">
         <v>1.0853013248686723</v>
       </c>
-      <c r="F22">
-        <v>12.339822269184925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44109</v>
       </c>
@@ -872,11 +803,8 @@
       <c r="E23">
         <v>1.0853013248686723</v>
       </c>
-      <c r="F23">
-        <v>12.360392735898728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44109</v>
       </c>
@@ -892,11 +820,8 @@
       <c r="E24">
         <v>1.1627083855554685</v>
       </c>
-      <c r="F24">
-        <v>11.760215339495852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44109</v>
       </c>
@@ -912,11 +837,8 @@
       <c r="E25">
         <v>1.0204081632653061</v>
       </c>
-      <c r="F25">
-        <v>11.789997431392081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44109</v>
       </c>
@@ -932,11 +854,8 @@
       <c r="E26">
         <v>1.0404505260298815</v>
       </c>
-      <c r="F26">
-        <v>12.940586880622627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44109</v>
       </c>
@@ -952,11 +871,8 @@
       <c r="E27">
         <v>1.0336098107062894</v>
       </c>
-      <c r="F27">
-        <v>12.221360109115228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44109</v>
       </c>
@@ -972,11 +888,8 @@
       <c r="E28">
         <v>1.0488026375535504</v>
       </c>
-      <c r="F28">
-        <v>12.555739141254087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44109</v>
       </c>
@@ -992,11 +905,8 @@
       <c r="E29">
         <v>1.106306579679361</v>
       </c>
-      <c r="F29">
-        <v>12.268006773533473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44109</v>
       </c>
@@ -1012,11 +922,8 @@
       <c r="E30">
         <v>1.1386531207133057</v>
       </c>
-      <c r="F30">
-        <v>11.780491099713476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44109</v>
       </c>
@@ -1032,11 +939,8 @@
       <c r="E31">
         <v>1.1398330958681051</v>
       </c>
-      <c r="F31">
-        <v>13.535066059171532</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44109</v>
       </c>
@@ -1052,11 +956,8 @@
       <c r="E32">
         <v>1.123046875</v>
       </c>
-      <c r="F32">
-        <v>12.865930318519329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44109</v>
       </c>
@@ -1072,11 +973,8 @@
       <c r="E33">
         <v>1.1575813228705791</v>
       </c>
-      <c r="F33">
-        <v>12.327988310854643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44109</v>
       </c>
@@ -1092,11 +990,8 @@
       <c r="E34">
         <v>0.98710836475628294</v>
       </c>
-      <c r="F34">
-        <v>11.502477408593084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44109</v>
       </c>
@@ -1112,11 +1007,8 @@
       <c r="E35">
         <v>1.1662363423583124</v>
       </c>
-      <c r="F35">
-        <v>12.67331410870832</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -1132,11 +1024,8 @@
       <c r="E36">
         <v>1.0204424154946126</v>
       </c>
-      <c r="F36">
-        <v>12.365658876000243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44109</v>
       </c>
@@ -1152,11 +1041,8 @@
       <c r="E37">
         <v>1.0204424154946126</v>
       </c>
-      <c r="F37">
-        <v>12.530582481694537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44109</v>
       </c>
@@ -1172,11 +1058,8 @@
       <c r="E38">
         <v>1.1390144335909025</v>
       </c>
-      <c r="F38">
-        <v>12.539263737148099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44109</v>
       </c>
@@ -1192,11 +1075,8 @@
       <c r="E39">
         <v>1.1152568781007832</v>
       </c>
-      <c r="F39">
-        <v>11.611262421275114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44109</v>
       </c>
@@ -1212,11 +1092,8 @@
       <c r="E40">
         <v>1.1501741675195127</v>
       </c>
-      <c r="F40">
-        <v>12.153154307429524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44109</v>
       </c>
@@ -1232,11 +1109,8 @@
       <c r="E41">
         <v>1.0536253139803438</v>
       </c>
-      <c r="F41">
-        <v>12.954553073167435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44118</v>
       </c>
@@ -1252,11 +1126,8 @@
       <c r="E42">
         <v>1.136982340338609</v>
       </c>
-      <c r="F42">
-        <v>12.909342350089823</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44118</v>
       </c>
@@ -1272,11 +1143,8 @@
       <c r="E43">
         <v>1.1805414207205374</v>
       </c>
-      <c r="F43">
-        <v>13.001662730952484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44118</v>
       </c>
@@ -1292,11 +1160,8 @@
       <c r="E44">
         <v>1.4459269000240478</v>
       </c>
-      <c r="F44">
-        <v>12.638684741538903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -1312,11 +1177,8 @@
       <c r="E45">
         <v>1.3311968339845106</v>
       </c>
-      <c r="F45">
-        <v>13.515224021957511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44118</v>
       </c>
@@ -1332,11 +1194,8 @@
       <c r="E46">
         <v>1.0204081632653061</v>
       </c>
-      <c r="F46">
-        <v>12.790076221268354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44118</v>
       </c>
@@ -1352,11 +1211,8 @@
       <c r="E47">
         <v>1.0853013248686723</v>
       </c>
-      <c r="F47">
-        <v>12.783499629792789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44118</v>
       </c>
@@ -1372,11 +1228,8 @@
       <c r="E48">
         <v>1.07421875</v>
       </c>
-      <c r="F48">
-        <v>12.473413056211884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44118</v>
       </c>
@@ -1392,11 +1245,8 @@
       <c r="E49">
         <v>1.123046875</v>
       </c>
-      <c r="F49">
-        <v>12.531417876638855</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44118</v>
       </c>
@@ -1412,11 +1262,8 @@
       <c r="E50">
         <v>1.0336203093987355</v>
       </c>
-      <c r="F50">
-        <v>12.293483260089545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44118</v>
       </c>
@@ -1432,11 +1279,8 @@
       <c r="E51">
         <v>1.1259259259259258</v>
       </c>
-      <c r="F51">
-        <v>12.903849784378988</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44118</v>
       </c>
@@ -1452,11 +1296,8 @@
       <c r="E52">
         <v>1.094313774640441</v>
       </c>
-      <c r="F52">
-        <v>12.583658771845952</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44118</v>
       </c>
@@ -1472,11 +1313,8 @@
       <c r="E53">
         <v>1.0703527095506629</v>
       </c>
-      <c r="F53">
-        <v>12.394499565221118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44118</v>
       </c>
@@ -1492,11 +1330,8 @@
       <c r="E54">
         <v>1.1851851851851851</v>
       </c>
-      <c r="F54">
-        <v>11.653852601824164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44118</v>
       </c>
@@ -1512,11 +1347,8 @@
       <c r="E55">
         <v>1.0991247710156729</v>
       </c>
-      <c r="F55">
-        <v>13.45488602893923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44118</v>
       </c>
@@ -1532,11 +1364,8 @@
       <c r="E56">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F56">
-        <v>12.999183528901749</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44118</v>
       </c>
@@ -1552,11 +1381,8 @@
       <c r="E57">
         <v>1.1259259259259258</v>
       </c>
-      <c r="F57">
-        <v>12.900700086125811</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44118</v>
       </c>
@@ -1572,11 +1398,8 @@
       <c r="E58">
         <v>1.0853013248686723</v>
       </c>
-      <c r="F58">
-        <v>12.216816529519653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44118</v>
       </c>
@@ -1592,11 +1415,8 @@
       <c r="E59">
         <v>1.0240142471547431</v>
       </c>
-      <c r="F59">
-        <v>13.552244906975025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44118</v>
       </c>
@@ -1612,11 +1432,8 @@
       <c r="E60">
         <v>1.171875</v>
       </c>
-      <c r="F60">
-        <v>12.632648131771381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44118</v>
       </c>
@@ -1632,11 +1449,8 @@
       <c r="E61">
         <v>1.0259191637254133</v>
       </c>
-      <c r="F61">
-        <v>13.003527851641167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44118</v>
       </c>
@@ -1652,11 +1466,8 @@
       <c r="E62">
         <v>1.171875</v>
       </c>
-      <c r="F62">
-        <v>13.002287153178665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44118</v>
       </c>
@@ -1672,11 +1483,8 @@
       <c r="E63">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F63">
-        <v>13.231889735524202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44118</v>
       </c>
@@ -1692,11 +1500,8 @@
       <c r="E64">
         <v>0.96341263064382321</v>
       </c>
-      <c r="F64">
-        <v>12.108354863180525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44118</v>
       </c>
@@ -1712,11 +1517,8 @@
       <c r="E65">
         <v>1.1726677941029886</v>
       </c>
-      <c r="F65">
-        <v>12.902345737410608</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44118</v>
       </c>
@@ -1732,11 +1534,8 @@
       <c r="E66">
         <v>1.1815649021516565</v>
       </c>
-      <c r="F66">
-        <v>12.772306685991271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1752,11 +1551,8 @@
       <c r="E67">
         <v>1.0631001371742113</v>
       </c>
-      <c r="F67">
-        <v>11.673596554941458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44118</v>
       </c>
@@ -1772,11 +1568,8 @@
       <c r="E68">
         <v>1.198098091166159</v>
       </c>
-      <c r="F68">
-        <v>13.515224021957508</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44118</v>
       </c>
@@ -1792,11 +1585,8 @@
       <c r="E69">
         <v>1.2169422702869346</v>
       </c>
-      <c r="F69">
-        <v>12.233079627538631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44118</v>
       </c>
@@ -1812,11 +1602,8 @@
       <c r="E70">
         <v>1.1037043512963154</v>
       </c>
-      <c r="F70">
-        <v>13.160706964641417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44118</v>
       </c>
@@ -1832,11 +1619,8 @@
       <c r="E71">
         <v>1.1130589642986337</v>
       </c>
-      <c r="F71">
-        <v>13.45488602893923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44118</v>
       </c>
@@ -1852,11 +1636,8 @@
       <c r="E72">
         <v>1.1594295005671544</v>
       </c>
-      <c r="F72">
-        <v>12.394499565221125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44118</v>
       </c>
@@ -1872,11 +1653,8 @@
       <c r="E73">
         <v>1.1152568781007832</v>
       </c>
-      <c r="F73">
-        <v>12.200060901131765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44118</v>
       </c>
@@ -1892,11 +1670,8 @@
       <c r="E74">
         <v>1.106306579679361</v>
       </c>
-      <c r="F74">
-        <v>12.790076221268354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44118</v>
       </c>
@@ -1912,11 +1687,8 @@
       <c r="E75">
         <v>1.1575813228705791</v>
       </c>
-      <c r="F75">
-        <v>13.301985904445619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44118</v>
       </c>
@@ -1932,11 +1704,8 @@
       <c r="E76">
         <v>1.3698254842333084</v>
       </c>
-      <c r="F76">
-        <v>12.937595285208515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44118</v>
       </c>
@@ -1952,11 +1721,8 @@
       <c r="E77">
         <v>1.1367869503853705</v>
       </c>
-      <c r="F77">
-        <v>12.464609447439679</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44118</v>
       </c>
@@ -1972,11 +1738,8 @@
       <c r="E78">
         <v>1.123046875</v>
       </c>
-      <c r="F78">
-        <v>12.400308028383646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44118</v>
       </c>
@@ -1992,11 +1755,8 @@
       <c r="E79">
         <v>1.0496535323301488</v>
       </c>
-      <c r="F79">
-        <v>12.910053585317515</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44118</v>
       </c>
@@ -2012,11 +1772,8 @@
       <c r="E80">
         <v>1.171875</v>
       </c>
-      <c r="F80">
-        <v>13.002807456636365</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44118</v>
       </c>
@@ -2032,11 +1789,8 @@
       <c r="E81">
         <v>1.0074074074074073</v>
       </c>
-      <c r="F81">
-        <v>13.231889735524202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44130</v>
       </c>
@@ -2052,11 +1806,8 @@
       <c r="E82">
         <v>1.2882550006301714</v>
       </c>
-      <c r="F82">
-        <v>13.303396685692562</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44130</v>
       </c>
@@ -2072,11 +1823,8 @@
       <c r="E83">
         <v>1.2468980524606954</v>
       </c>
-      <c r="F83">
-        <v>12.882951625724044</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44130</v>
       </c>
@@ -2092,11 +1840,8 @@
       <c r="E84">
         <v>1.3037037037037036</v>
       </c>
-      <c r="F84">
-        <v>13.125261269643795</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44130</v>
       </c>
@@ -2112,11 +1857,8 @@
       <c r="E85">
         <v>1.2643503767764124</v>
       </c>
-      <c r="F85">
-        <v>13.087078469732205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44130</v>
       </c>
@@ -2132,11 +1874,8 @@
       <c r="E86">
         <v>1.2688046647230322</v>
       </c>
-      <c r="F86">
-        <v>13.709756067753903</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44130</v>
       </c>
@@ -2152,11 +1891,8 @@
       <c r="E87">
         <v>1.2882550006301714</v>
       </c>
-      <c r="F87">
-        <v>13.597178434803034</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44130</v>
       </c>
@@ -2172,11 +1908,8 @@
       <c r="E88">
         <v>1.2403443712784825</v>
       </c>
-      <c r="F88">
-        <v>13.637788525833745</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44130</v>
       </c>
@@ -2192,11 +1925,8 @@
       <c r="E89">
         <v>1.2338854559453536</v>
       </c>
-      <c r="F89">
-        <v>13.447627780079493</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44130</v>
       </c>
@@ -2212,11 +1942,8 @@
       <c r="E90">
         <v>1.2746930741869436</v>
       </c>
-      <c r="F90">
-        <v>13.009620993741034</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44130</v>
       </c>
@@ -2232,11 +1959,8 @@
       <c r="E91">
         <v>1.1851851851851851</v>
       </c>
-      <c r="F91">
-        <v>13.062217671212583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44130</v>
       </c>
@@ -2252,11 +1976,8 @@
       <c r="E92">
         <v>1.2230896750532987</v>
       </c>
-      <c r="F92">
-        <v>13.062217671212583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44130</v>
       </c>
@@ -2272,11 +1993,8 @@
       <c r="E93">
         <v>1.1335442027828964</v>
       </c>
-      <c r="F93">
-        <v>13.437503169295073</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44130</v>
       </c>
@@ -2292,11 +2010,8 @@
       <c r="E94">
         <v>1.1367869503853705</v>
       </c>
-      <c r="F94">
-        <v>13.812994426267291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44130</v>
       </c>
@@ -2312,11 +2027,8 @@
       <c r="E95">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F95">
-        <v>13.161518956576753</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44130</v>
       </c>
@@ -2332,11 +2044,8 @@
       <c r="E96">
         <v>1.2882550006301714</v>
       </c>
-      <c r="F96">
-        <v>12.817984456929564</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44130</v>
       </c>
@@ -2352,11 +2061,8 @@
       <c r="E97">
         <v>1.1168264705742748</v>
       </c>
-      <c r="F97">
-        <v>13.447627780079493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44130</v>
       </c>
@@ -2372,11 +2078,8 @@
       <c r="E98">
         <v>1.1398367439344965</v>
       </c>
-      <c r="F98">
-        <v>14.192587607885422</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44130</v>
       </c>
@@ -2392,11 +2095,8 @@
       <c r="E99">
         <v>1.1005320286264104</v>
       </c>
-      <c r="F99">
-        <v>14.214220058277172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44130</v>
       </c>
@@ -2412,11 +2112,8 @@
       <c r="E100">
         <v>1.2444444444444445</v>
       </c>
-      <c r="F100">
-        <v>13.099682979242733</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44130</v>
       </c>
@@ -2432,11 +2129,8 @@
       <c r="E101">
         <v>1.2889798932563525</v>
       </c>
-      <c r="F101">
-        <v>13.062217671212601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44130</v>
       </c>
@@ -2452,11 +2146,8 @@
       <c r="E102">
         <v>1.1726677941029886</v>
       </c>
-      <c r="F102">
-        <v>13.021019296009799</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44130</v>
       </c>
@@ -2472,11 +2163,8 @@
       <c r="E103">
         <v>1.2619580704254019</v>
       </c>
-      <c r="F103">
-        <v>13.252757890151333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44130</v>
       </c>
@@ -2492,11 +2180,8 @@
       <c r="E104">
         <v>1.2766518811465466</v>
       </c>
-      <c r="F104">
-        <v>13.044123650029388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44130</v>
       </c>
@@ -2512,11 +2197,8 @@
       <c r="E105">
         <v>1.220703125</v>
       </c>
-      <c r="F105">
-        <v>13.809062422484384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44130</v>
       </c>
@@ -2532,11 +2214,8 @@
       <c r="E106">
         <v>1.2577508898587548</v>
       </c>
-      <c r="F106">
-        <v>13.12145526863349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44130</v>
       </c>
@@ -2552,11 +2231,8 @@
       <c r="E107">
         <v>1.2676481982155567</v>
       </c>
-      <c r="F107">
-        <v>13.760444412759718</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44130</v>
       </c>
@@ -2572,11 +2248,8 @@
       <c r="E108">
         <v>1.0735458338584762</v>
       </c>
-      <c r="F108">
-        <v>14.297339728022905</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44130</v>
       </c>
@@ -2592,11 +2265,8 @@
       <c r="E109">
         <v>1.2911483985864149</v>
       </c>
-      <c r="F109">
-        <v>13.217152070918326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44130</v>
       </c>
@@ -2612,11 +2282,8 @@
       <c r="E110">
         <v>1.1168264705742748</v>
       </c>
-      <c r="F110">
-        <v>13.338237821449811</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44130</v>
       </c>
@@ -2632,11 +2299,8 @@
       <c r="E111">
         <v>1.3037037037037036</v>
       </c>
-      <c r="F111">
-        <v>13.175132149262387</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44130</v>
       </c>
@@ -2652,11 +2316,8 @@
       <c r="E112">
         <v>1.3434402332361517</v>
       </c>
-      <c r="F112">
-        <v>13.099682979242733</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44130</v>
       </c>
@@ -2672,11 +2333,8 @@
       <c r="E113">
         <v>1.2021036814425246</v>
       </c>
-      <c r="F113">
-        <v>12.991621384989589</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44130</v>
       </c>
@@ -2692,11 +2350,8 @@
       <c r="E114">
         <v>1.2799459862793787</v>
       </c>
-      <c r="F114">
-        <v>13.471670706910482</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44130</v>
       </c>
@@ -2712,11 +2367,8 @@
       <c r="E115">
         <v>1.2701315856322717</v>
       </c>
-      <c r="F115">
-        <v>12.668091073045252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44130</v>
       </c>
@@ -2732,11 +2384,8 @@
       <c r="E116">
         <v>1.1726677941029886</v>
       </c>
-      <c r="F116">
-        <v>13.672760810020771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44130</v>
       </c>
@@ -2752,11 +2401,8 @@
       <c r="E117">
         <v>1.4222222222222223</v>
       </c>
-      <c r="F117">
-        <v>13.195450225570054</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44130</v>
       </c>
@@ -2772,11 +2418,8 @@
       <c r="E118">
         <v>1.2468980524606954</v>
       </c>
-      <c r="F118">
-        <v>13.260889736195487</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44130</v>
       </c>
@@ -2792,11 +2435,8 @@
       <c r="E119">
         <v>1.1398367439344965</v>
       </c>
-      <c r="F119">
-        <v>13.290746341696885</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44130</v>
       </c>
@@ -2812,11 +2452,8 @@
       <c r="E120">
         <v>1.2047321880345998</v>
       </c>
-      <c r="F120">
-        <v>13.540132076283594</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44130</v>
       </c>
@@ -2832,11 +2469,8 @@
       <c r="E121">
         <v>1.0204424154946126</v>
       </c>
-      <c r="F121">
-        <v>13.062217671212574</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44140</v>
       </c>
@@ -2852,11 +2486,8 @@
       <c r="E122">
         <v>1.1815649021516565</v>
       </c>
-      <c r="F122">
-        <v>11.886502124151869</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44140</v>
       </c>
@@ -2872,11 +2503,8 @@
       <c r="E123">
         <v>1.1278574065993086</v>
       </c>
-      <c r="F123">
-        <v>11.828796635371608</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44140</v>
       </c>
@@ -2892,11 +2520,8 @@
       <c r="E124">
         <v>1.2799459862793787</v>
       </c>
-      <c r="F124">
-        <v>12.00350792949563</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44140</v>
       </c>
@@ -2912,11 +2537,8 @@
       <c r="E125">
         <v>1.2444444444444445</v>
       </c>
-      <c r="F125">
-        <v>11.788694012038064</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44140</v>
       </c>
@@ -2932,11 +2554,8 @@
       <c r="E126">
         <v>1.1760477644743257</v>
       </c>
-      <c r="F126">
-        <v>11.228234694529723</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44140</v>
       </c>
@@ -2952,11 +2571,8 @@
       <c r="E127">
         <v>1.1575813228705791</v>
       </c>
-      <c r="F127">
-        <v>11.352688150069008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44140</v>
       </c>
@@ -2972,11 +2588,8 @@
       <c r="E128">
         <v>1.2242277390055283</v>
       </c>
-      <c r="F128">
-        <v>13.304928763935639</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44140</v>
       </c>
@@ -2992,11 +2605,8 @@
       <c r="E129">
         <v>1.2701315856322717</v>
       </c>
-      <c r="F129">
-        <v>12.639884463105341</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44140</v>
       </c>
@@ -3012,11 +2622,8 @@
       <c r="E130">
         <v>1.3344795430597778</v>
       </c>
-      <c r="F130">
-        <v>12.645473990190006</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44140</v>
       </c>
@@ -3032,11 +2639,8 @@
       <c r="E131">
         <v>1.440329218106996</v>
       </c>
-      <c r="F131">
-        <v>12.67361077550887</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44140</v>
       </c>
@@ -3052,11 +2656,8 @@
       <c r="E132">
         <v>1.252841672703086</v>
       </c>
-      <c r="F132">
-        <v>12.481663887077049</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44140</v>
       </c>
@@ -3072,11 +2673,8 @@
       <c r="E133">
         <v>1.2148767735302652</v>
       </c>
-      <c r="F133">
-        <v>11.434035467255939</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44140</v>
       </c>
@@ -3092,11 +2690,8 @@
       <c r="E134">
         <v>1.2184461745506687</v>
       </c>
-      <c r="F134">
-        <v>12.51480813858061</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44140</v>
       </c>
@@ -3112,11 +2707,8 @@
       <c r="E135">
         <v>1.2577508898587548</v>
       </c>
-      <c r="F135">
-        <v>11.767534246224692</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44140</v>
       </c>
@@ -3132,11 +2724,8 @@
       <c r="E136">
         <v>1.1575813228705791</v>
       </c>
-      <c r="F136">
-        <v>11.549403526641703</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44140</v>
       </c>
@@ -3152,11 +2741,8 @@
       <c r="E137">
         <v>1.220703125</v>
       </c>
-      <c r="F137">
-        <v>11.628041688369434</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44140</v>
       </c>
@@ -3172,11 +2758,8 @@
       <c r="E138">
         <v>1.3116772504446583</v>
       </c>
-      <c r="F138">
-        <v>14.111553999527237</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44140</v>
       </c>
@@ -3192,11 +2775,8 @@
       <c r="E139">
         <v>1.2679546754298363</v>
       </c>
-      <c r="F139">
-        <v>12.159914931870677</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44140</v>
       </c>
@@ -3212,11 +2792,8 @@
       <c r="E140">
         <v>1.2460220148128052</v>
       </c>
-      <c r="F140">
-        <v>11.549403526641703</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44140</v>
       </c>
@@ -3232,11 +2809,8 @@
       <c r="E141">
         <v>1.3563368055555556</v>
       </c>
-      <c r="F141">
-        <v>14.083636874385766</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44140</v>
       </c>
@@ -3252,11 +2826,8 @@
       <c r="E142">
         <v>1.2911483985864149</v>
       </c>
-      <c r="F142">
-        <v>14.143968630391713</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44140</v>
       </c>
@@ -3272,11 +2843,8 @@
       <c r="E143">
         <v>1.2643503767764124</v>
       </c>
-      <c r="F143">
-        <v>13.489706579645535</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44140</v>
       </c>
@@ -3292,11 +2860,8 @@
       <c r="E144">
         <v>1.2766518811465466</v>
       </c>
-      <c r="F144">
-        <v>14.57323616396239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44140</v>
       </c>
@@ -3312,11 +2877,8 @@
       <c r="E145">
         <v>1.3658318239294212</v>
       </c>
-      <c r="F145">
-        <v>13.588908264156458</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44140</v>
       </c>
@@ -3332,11 +2894,8 @@
       <c r="E146">
         <v>1.2023713339214934</v>
       </c>
-      <c r="F146">
-        <v>13.588908264156458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44140</v>
       </c>
@@ -3352,11 +2911,8 @@
       <c r="E147">
         <v>1.3553998254594801</v>
       </c>
-      <c r="F147">
-        <v>13.995662689012235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44140</v>
       </c>
@@ -3372,11 +2928,8 @@
       <c r="E148">
         <v>1.1278574065993086</v>
       </c>
-      <c r="F148">
-        <v>13.383686784398499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44140</v>
       </c>
@@ -3392,11 +2945,8 @@
       <c r="E149">
         <v>1.1788859708942123</v>
       </c>
-      <c r="F149">
-        <v>13.258607480388475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44140</v>
       </c>
@@ -3412,11 +2962,8 @@
       <c r="E150">
         <v>1.1575813228705791</v>
       </c>
-      <c r="F150">
-        <v>13.2127587565019</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44140</v>
       </c>
@@ -3432,11 +2979,8 @@
       <c r="E151">
         <v>1.171875</v>
       </c>
-      <c r="F151">
-        <v>13.387892195141145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44140</v>
       </c>
@@ -3452,11 +2996,8 @@
       <c r="E152">
         <v>1.2679546754298363</v>
       </c>
-      <c r="F152">
-        <v>12.740741938405218</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44140</v>
       </c>
@@ -3472,11 +3013,8 @@
       <c r="E153">
         <v>1.2352723977040045</v>
       </c>
-      <c r="F153">
-        <v>12.519671728057256</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44140</v>
       </c>
@@ -3492,11 +3030,8 @@
       <c r="E154">
         <v>1.171875</v>
       </c>
-      <c r="F154">
-        <v>11.972246836750346</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44140</v>
       </c>
@@ -3512,11 +3047,8 @@
       <c r="E155">
         <v>1.0685366057266883</v>
       </c>
-      <c r="F155">
-        <v>12.088456393136392</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44140</v>
       </c>
@@ -3532,11 +3064,8 @@
       <c r="E156">
         <v>1.3026663952778343</v>
       </c>
-      <c r="F156">
-        <v>11.767534246224681</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44140</v>
       </c>
@@ -3552,11 +3081,8 @@
       <c r="E157">
         <v>1.2232075369830471</v>
       </c>
-      <c r="F157">
-        <v>11.988083264835291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44140</v>
       </c>
@@ -3572,11 +3098,8 @@
       <c r="E158">
         <v>1.1815649021516565</v>
       </c>
-      <c r="F158">
-        <v>11.857804300567251</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44140</v>
       </c>
@@ -3592,11 +3115,8 @@
       <c r="E159">
         <v>1.1941252025348292</v>
       </c>
-      <c r="F159">
-        <v>11.50366439467372</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44140</v>
       </c>
@@ -3612,11 +3132,8 @@
       <c r="E160">
         <v>1.2889798932563525</v>
       </c>
-      <c r="F160">
-        <v>11.67704411540838</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44140</v>
       </c>
@@ -3632,11 +3149,8 @@
       <c r="E161">
         <v>1.2521061066820092</v>
       </c>
-      <c r="F161">
-        <v>12.263807266224772</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44149</v>
       </c>
@@ -3652,11 +3166,8 @@
       <c r="E162">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F162">
-        <v>13.573435007152135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44149</v>
       </c>
@@ -3672,11 +3183,8 @@
       <c r="E163">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F163">
-        <v>12.874958545497154</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44149</v>
       </c>
@@ -3692,11 +3200,8 @@
       <c r="E164">
         <v>1.3270149727099372</v>
       </c>
-      <c r="F164">
-        <v>12.867397440572908</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44149</v>
       </c>
@@ -3712,11 +3217,8 @@
       <c r="E165">
         <v>1.3999409224930706</v>
       </c>
-      <c r="F165">
-        <v>12.941459726417339</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44149</v>
       </c>
@@ -3732,11 +3234,8 @@
       <c r="E166">
         <v>1.3026663952778343</v>
       </c>
-      <c r="F166">
-        <v>12.460893961316073</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44149</v>
       </c>
@@ -3752,11 +3251,8 @@
       <c r="E167">
         <v>1.3599426104218399</v>
       </c>
-      <c r="F167">
-        <v>12.854876758996635</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44149</v>
       </c>
@@ -3772,11 +3268,8 @@
       <c r="E168">
         <v>1.306122448979592</v>
       </c>
-      <c r="F168">
-        <v>12.867397440572908</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44149</v>
       </c>
@@ -3792,11 +3285,8 @@
       <c r="E169">
         <v>1.2679546754298363</v>
       </c>
-      <c r="F169">
-        <v>13.814065130746531</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44149</v>
       </c>
@@ -3812,11 +3302,8 @@
       <c r="E170">
         <v>1.2920253867484193</v>
       </c>
-      <c r="F170">
-        <v>12.431986895173321</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44149</v>
       </c>
@@ -3832,11 +3319,8 @@
       <c r="E171">
         <v>1.3426873888087005</v>
       </c>
-      <c r="F171">
-        <v>12.965622575950192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44149</v>
       </c>
@@ -3852,11 +3336,8 @@
       <c r="E172">
         <v>1.3031550068587106</v>
       </c>
-      <c r="F172">
-        <v>13.307318937156879</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44149</v>
       </c>
@@ -3872,11 +3353,8 @@
       <c r="E173">
         <v>1.3163166762554455</v>
       </c>
-      <c r="F173">
-        <v>14.098067936319364</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44149</v>
       </c>
@@ -3892,11 +3370,8 @@
       <c r="E174">
         <v>1.2553747912721465</v>
       </c>
-      <c r="F174">
-        <v>13.415429742098375</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44149</v>
       </c>
@@ -3912,11 +3387,8 @@
       <c r="E175">
         <v>1.3380137707724595</v>
       </c>
-      <c r="F175">
-        <v>13.83679415711581</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44149</v>
       </c>
@@ -3932,11 +3404,8 @@
       <c r="E176">
         <v>1.241189328892476</v>
       </c>
-      <c r="F176">
-        <v>13.167847457802187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44149</v>
       </c>
@@ -3952,11 +3421,8 @@
       <c r="E177">
         <v>1.4579384749963553</v>
       </c>
-      <c r="F177">
-        <v>14.459593951821597</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44149</v>
       </c>
@@ -3972,11 +3438,8 @@
       <c r="E178">
         <v>1.2479465797915958</v>
       </c>
-      <c r="F178">
-        <v>14.304975478597784</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44149</v>
       </c>
@@ -3992,11 +3455,8 @@
       <c r="E179">
         <v>1.1941690962099125</v>
       </c>
-      <c r="F179">
-        <v>14.205825359220203</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44149</v>
       </c>
@@ -4012,11 +3472,8 @@
       <c r="E180">
         <v>1.2021036814425246</v>
       </c>
-      <c r="F180">
-        <v>13.149192416858325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44149</v>
       </c>
@@ -4032,11 +3489,8 @@
       <c r="E181">
         <v>1.0952110800314543</v>
       </c>
-      <c r="F181">
-        <v>12.90351212300885</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44149</v>
       </c>
@@ -4052,11 +3506,8 @@
       <c r="E182">
         <v>1.269569507116844</v>
       </c>
-      <c r="F182">
-        <v>12.950028100355341</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44149</v>
       </c>
@@ -4072,11 +3523,8 @@
       <c r="E183">
         <v>1.2169422702869346</v>
       </c>
-      <c r="F183">
-        <v>12.987897052847602</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44149</v>
       </c>
@@ -4092,11 +3540,8 @@
       <c r="E184">
         <v>1.3756650357830131</v>
       </c>
-      <c r="F184">
-        <v>13.089918339069781</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44149</v>
       </c>
@@ -4112,11 +3557,8 @@
       <c r="E185">
         <v>1.414969751091099</v>
       </c>
-      <c r="F185">
-        <v>13.397541235854542</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44149</v>
       </c>
@@ -4132,11 +3574,8 @@
       <c r="E186">
         <v>1.1769118743574443</v>
       </c>
-      <c r="F186">
-        <v>12.959850508578455</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44149</v>
       </c>
@@ -4152,11 +3591,8 @@
       <c r="E187">
         <v>1.3953874176882928</v>
       </c>
-      <c r="F187">
-        <v>13.080517015101281</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44149</v>
       </c>
@@ -4172,11 +3608,8 @@
       <c r="E188">
         <v>1.2679546754298363</v>
       </c>
-      <c r="F188">
-        <v>13.087868210782968</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44149</v>
       </c>
@@ -4192,11 +3625,8 @@
       <c r="E189">
         <v>1.306122448979592</v>
       </c>
-      <c r="F189">
-        <v>12.988635872551265</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44149</v>
       </c>
@@ -4212,11 +3642,8 @@
       <c r="E190">
         <v>1.3919258179462259</v>
       </c>
-      <c r="F190">
-        <v>14.034074685904075</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44149</v>
       </c>
@@ -4232,11 +3659,8 @@
       <c r="E191">
         <v>1.2403443712784825</v>
       </c>
-      <c r="F191">
-        <v>13.178344842103924</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44149</v>
       </c>
@@ -4252,11 +3676,8 @@
       <c r="E192">
         <v>1.4064554294991967</v>
       </c>
-      <c r="F192">
-        <v>13.486940559819601</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44149</v>
       </c>
@@ -4272,11 +3693,8 @@
       <c r="E193">
         <v>1.3905742627493931</v>
       </c>
-      <c r="F193">
-        <v>14.07931646678013</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44149</v>
       </c>
@@ -4292,11 +3710,8 @@
       <c r="E194">
         <v>1.3259277506112217</v>
       </c>
-      <c r="F194">
-        <v>13.7871912037663</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44149</v>
       </c>
@@ -4312,11 +3727,8 @@
       <c r="E195">
         <v>1.3311968339845106</v>
       </c>
-      <c r="F195">
-        <v>13.661070168158801</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44149</v>
       </c>
@@ -4332,11 +3744,8 @@
       <c r="E196">
         <v>1.3667363702215485</v>
       </c>
-      <c r="F196">
-        <v>14.330444257055728</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44149</v>
       </c>
@@ -4352,11 +3761,8 @@
       <c r="E197">
         <v>1.2970556051668409</v>
       </c>
-      <c r="F197">
-        <v>14.192414557466821</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44149</v>
       </c>
@@ -4372,11 +3778,8 @@
       <c r="E198">
         <v>1.2970556051668409</v>
       </c>
-      <c r="F198">
-        <v>14.000363913918191</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44149</v>
       </c>
@@ -4392,11 +3795,8 @@
       <c r="E199">
         <v>1.2023713339214934</v>
       </c>
-      <c r="F199">
-        <v>12.807259016404021</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44149</v>
       </c>
@@ -4412,11 +3812,8 @@
       <c r="E200">
         <v>1.2920253867484193</v>
       </c>
-      <c r="F200">
-        <v>13.554492000634154</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44149</v>
       </c>
@@ -4432,11 +3829,8 @@
       <c r="E201">
         <v>1.2338854559453536</v>
       </c>
-      <c r="F201">
-        <v>13.149192416858325</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44160</v>
       </c>
@@ -4452,11 +3846,8 @@
       <c r="E202">
         <v>1.3121446274967197</v>
       </c>
-      <c r="F202">
-        <v>14.821665906387899</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44160</v>
       </c>
@@ -4472,11 +3863,8 @@
       <c r="E203">
         <v>1.4903239123216894</v>
       </c>
-      <c r="F203">
-        <v>16.68032733790373</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44160</v>
       </c>
@@ -4492,11 +3880,8 @@
       <c r="E204">
         <v>1.3717421124828533</v>
       </c>
-      <c r="F204">
-        <v>14.29387320592256</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44160</v>
       </c>
@@ -4512,11 +3897,8 @@
       <c r="E205">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F205">
-        <v>14.761462951768555</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44160</v>
       </c>
@@ -4532,11 +3914,8 @@
       <c r="E206">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F206">
-        <v>14.227852233896293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44160</v>
       </c>
@@ -4552,11 +3931,8 @@
       <c r="E207">
         <v>1.3079806570588512</v>
       </c>
-      <c r="F207">
-        <v>14.903304278644333</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44160</v>
       </c>
@@ -4572,11 +3948,8 @@
       <c r="E208">
         <v>1.3717421124828533</v>
       </c>
-      <c r="F208">
-        <v>13.598621941044591</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44160</v>
       </c>
@@ -4592,11 +3965,8 @@
       <c r="E209">
         <v>1.3116772504446583</v>
       </c>
-      <c r="F209">
-        <v>13.551456451832149</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44160</v>
       </c>
@@ -4612,11 +3982,8 @@
       <c r="E210">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F210">
-        <v>14.169481176475198</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44160</v>
       </c>
@@ -4632,11 +3999,8 @@
       <c r="E211">
         <v>1.2882550006301714</v>
       </c>
-      <c r="F211">
-        <v>13.465037200379992</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44160</v>
       </c>
@@ -4652,11 +4016,8 @@
       <c r="E212">
         <v>1.3491314376125361</v>
       </c>
-      <c r="F212">
-        <v>14.252474117409101</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44160</v>
       </c>
@@ -4672,11 +4033,8 @@
       <c r="E213">
         <v>1.3958329817314652</v>
       </c>
-      <c r="F213">
-        <v>15.324823825391517</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44160</v>
       </c>
@@ -4692,11 +4050,8 @@
       <c r="E214">
         <v>1.3121446274967197</v>
       </c>
-      <c r="F214">
-        <v>14.39238101152992</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44160</v>
       </c>
@@ -4712,11 +4067,8 @@
       <c r="E215">
         <v>1.4927113702623906</v>
       </c>
-      <c r="F215">
-        <v>13.984697744349893</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44160</v>
       </c>
@@ -4732,11 +4084,8 @@
       <c r="E216">
         <v>1.3756650357830131</v>
       </c>
-      <c r="F216">
-        <v>13.508196272867872</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44160</v>
       </c>
@@ -4752,11 +4101,8 @@
       <c r="E217">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F217">
-        <v>14.821074764774517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44160</v>
       </c>
@@ -4772,11 +4118,8 @@
       <c r="E218">
         <v>1.198098091166159</v>
       </c>
-      <c r="F218">
-        <v>12.000369984618983</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44160</v>
       </c>
@@ -4792,11 +4135,8 @@
       <c r="E219">
         <v>1.3170316424754296</v>
       </c>
-      <c r="F219">
-        <v>12.716590199576132</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44160</v>
       </c>
@@ -4812,11 +4152,8 @@
       <c r="E220">
         <v>1.0336203093987355</v>
       </c>
-      <c r="F220">
-        <v>11.702302140618338</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44160</v>
       </c>
@@ -4832,11 +4169,8 @@
       <c r="E221">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F221">
-        <v>12.693648991345325</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44160</v>
       </c>
@@ -4852,11 +4186,8 @@
       <c r="E222">
         <v>1.2212497455729696</v>
       </c>
-      <c r="F222">
-        <v>11.661743602514763</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44160</v>
       </c>
@@ -4872,11 +4203,8 @@
       <c r="E223">
         <v>1.3345614534005112</v>
       </c>
-      <c r="F223">
-        <v>13.407377326248533</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44160</v>
       </c>
@@ -4892,11 +4220,8 @@
       <c r="E224">
         <v>1.4214360452490475</v>
       </c>
-      <c r="F224">
-        <v>13.340246191267427</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44160</v>
       </c>
@@ -4912,11 +4237,8 @@
       <c r="E225">
         <v>1.4128508391203705</v>
       </c>
-      <c r="F225">
-        <v>14.383747244466431</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44160</v>
       </c>
@@ -4932,11 +4254,8 @@
       <c r="E226">
         <v>1.5</v>
       </c>
-      <c r="F226">
-        <v>14.466541051378456</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44160</v>
       </c>
@@ -4952,11 +4271,8 @@
       <c r="E227">
         <v>1.2653871072238416</v>
       </c>
-      <c r="F227">
-        <v>11.840436100194381</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44160</v>
       </c>
@@ -4972,11 +4288,8 @@
       <c r="E228">
         <v>1.306122448979592</v>
       </c>
-      <c r="F228">
-        <v>13.317477443108064</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44160</v>
       </c>
@@ -4992,11 +4305,8 @@
       <c r="E229">
         <v>1.180490007910969</v>
       </c>
-      <c r="F229">
-        <v>13.660964018330809</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44160</v>
       </c>
@@ -5012,11 +4322,8 @@
       <c r="E230">
         <v>1.1999493621369175</v>
       </c>
-      <c r="F230">
-        <v>13.692855461097249</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44160</v>
       </c>
@@ -5032,11 +4339,8 @@
       <c r="E231">
         <v>1.3426873888087005</v>
       </c>
-      <c r="F231">
-        <v>11.461908513415825</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44160</v>
       </c>
@@ -5052,11 +4356,8 @@
       <c r="E232">
         <v>1.4214360452490475</v>
       </c>
-      <c r="F232">
-        <v>13.633504624686299</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44160</v>
       </c>
@@ -5072,11 +4373,8 @@
       <c r="E233">
         <v>1.3121446274967197</v>
       </c>
-      <c r="F233">
-        <v>13.936508616336697</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44160</v>
       </c>
@@ -5092,11 +4390,8 @@
       <c r="E234">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F234">
-        <v>13.860274279318544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44160</v>
       </c>
@@ -5112,11 +4407,8 @@
       <c r="E235">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F235">
-        <v>13.374316104067436</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44160</v>
       </c>
@@ -5132,11 +4424,8 @@
       <c r="E236">
         <v>1.3053792885584972</v>
       </c>
-      <c r="F236">
-        <v>13.445119480963559</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44160</v>
       </c>
@@ -5152,11 +4441,8 @@
       <c r="E237">
         <v>1.4247913698351313</v>
       </c>
-      <c r="F237">
-        <v>13.143467244258227</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44160</v>
       </c>
@@ -5172,11 +4458,8 @@
       <c r="E238">
         <v>1.1389469751846235</v>
       </c>
-      <c r="F238">
-        <v>13.063501420288338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44160</v>
       </c>
@@ -5192,11 +4475,8 @@
       <c r="E239">
         <v>1.1760477644743257</v>
       </c>
-      <c r="F239">
-        <v>13.257978208449916</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44160</v>
       </c>
@@ -5212,11 +4492,8 @@
       <c r="E240">
         <v>1.3602530433394757</v>
       </c>
-      <c r="F240">
-        <v>11.359071029316725</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44160</v>
       </c>
@@ -5232,11 +4509,8 @@
       <c r="E241">
         <v>1.3356707571583604</v>
       </c>
-      <c r="F241">
-        <v>13.208485203816341</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44170</v>
       </c>
@@ -5252,11 +4526,8 @@
       <c r="E242">
         <v>1.2934073291022827</v>
       </c>
-      <c r="F242">
-        <v>17.29005295694019</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44170</v>
       </c>
@@ -5272,11 +4543,8 @@
       <c r="E243">
         <v>1.4128508391203705</v>
       </c>
-      <c r="F243">
-        <v>14.054082263882634</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44170</v>
       </c>
@@ -5292,11 +4560,8 @@
       <c r="E244">
         <v>1.2433087384259258</v>
       </c>
-      <c r="F244">
-        <v>13.782880728352351</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44170</v>
       </c>
@@ -5312,11 +4577,8 @@
       <c r="E245">
         <v>1.2998227719907407</v>
       </c>
-      <c r="F245">
-        <v>13.996159673419108</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44170</v>
       </c>
@@ -5332,11 +4594,8 @@
       <c r="E246">
         <v>1.3940411344853489</v>
       </c>
-      <c r="F246">
-        <v>13.626979976688453</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44170</v>
       </c>
@@ -5352,11 +4611,8 @@
       <c r="E247">
         <v>1.3374485596707819</v>
       </c>
-      <c r="F247">
-        <v>14.02720009628603</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44170</v>
       </c>
@@ -5372,11 +4628,8 @@
       <c r="E248">
         <v>1.414969751091099</v>
       </c>
-      <c r="F248">
-        <v>13.871177656433225</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44170</v>
       </c>
@@ -5392,11 +4645,8 @@
       <c r="E249">
         <v>1.2766518811465466</v>
       </c>
-      <c r="F249">
-        <v>13.765019535685404</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44170</v>
       </c>
@@ -5412,11 +4662,8 @@
       <c r="E250">
         <v>1.3519471998952433</v>
       </c>
-      <c r="F250">
-        <v>13.996159673419109</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44170</v>
       </c>
@@ -5432,11 +4679,8 @@
       <c r="E251">
         <v>1.2920253867484193</v>
       </c>
-      <c r="F251">
-        <v>12.89702952466107</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44170</v>
       </c>
@@ -5452,11 +4696,8 @@
       <c r="E252">
         <v>1.2970335638007564</v>
       </c>
-      <c r="F252">
-        <v>16.557828078859934</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44170</v>
       </c>
@@ -5472,11 +4713,8 @@
       <c r="E253">
         <v>1.262014206223488</v>
       </c>
-      <c r="F253">
-        <v>18.699340206391426</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44170</v>
       </c>
@@ -5492,11 +4730,8 @@
       <c r="E254">
         <v>1.3251178352317101</v>
       </c>
-      <c r="F254">
-        <v>13.680607404742796</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44170</v>
       </c>
@@ -5512,11 +4747,8 @@
       <c r="E255">
         <v>1.2950861745602431</v>
       </c>
-      <c r="F255">
-        <v>14.892535461389278</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44170</v>
       </c>
@@ -5532,11 +4764,8 @@
       <c r="E256">
         <v>1.2938395983921889</v>
       </c>
-      <c r="F256">
-        <v>13.459874703940278</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44170</v>
       </c>
@@ -5552,11 +4781,8 @@
       <c r="E257">
         <v>1.2688046647230322</v>
       </c>
-      <c r="F257">
-        <v>13.988168434327548</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44170</v>
       </c>
@@ -5572,11 +4798,8 @@
       <c r="E258">
         <v>1.1902114843506126</v>
       </c>
-      <c r="F258">
-        <v>14.201660310004192</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44170</v>
       </c>
@@ -5592,11 +4815,8 @@
       <c r="E259">
         <v>1.2242321004150145</v>
       </c>
-      <c r="F259">
-        <v>13.364114436642467</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44170</v>
       </c>
@@ -5612,11 +4832,8 @@
       <c r="E260">
         <v>1.1902114843506126</v>
       </c>
-      <c r="F260">
-        <v>14.201660310004192</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44170</v>
       </c>
@@ -5632,11 +4849,8 @@
       <c r="E261">
         <v>1.0543263202262199</v>
       </c>
-      <c r="F261">
-        <v>13.231096355869841</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44170</v>
       </c>
@@ -5652,11 +4866,8 @@
       <c r="E262">
         <v>1.3299508250682428</v>
       </c>
-      <c r="F262">
-        <v>12.395449602904641</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44170</v>
       </c>
@@ -5672,11 +4883,8 @@
       <c r="E263">
         <v>1.2634987068880423</v>
       </c>
-      <c r="F263">
-        <v>12.656591149892121</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44170</v>
       </c>
@@ -5692,11 +4900,8 @@
       <c r="E264">
         <v>1.3433908528516831</v>
       </c>
-      <c r="F264">
-        <v>15.347638475645223</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44170</v>
       </c>
@@ -5712,11 +4917,8 @@
       <c r="E265">
         <v>1.2137763617053559</v>
       </c>
-      <c r="F265">
-        <v>12.518402419554819</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44170</v>
       </c>
@@ -5732,11 +4934,8 @@
       <c r="E266">
         <v>1.3380137707724595</v>
       </c>
-      <c r="F266">
-        <v>13.211661184920411</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44170</v>
       </c>
@@ -5752,11 +4951,8 @@
       <c r="E267">
         <v>1.1437735376554325</v>
       </c>
-      <c r="F267">
-        <v>12.54330569014671</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>44170</v>
       </c>
@@ -5772,11 +4968,8 @@
       <c r="E268">
         <v>1.3491314376125361</v>
       </c>
-      <c r="F268">
-        <v>12.427504371346398</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44170</v>
       </c>
@@ -5792,11 +4985,8 @@
       <c r="E269">
         <v>1.2399476742081481</v>
       </c>
-      <c r="F269">
-        <v>11.97984358663158</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44170</v>
       </c>
@@ -5812,11 +5002,8 @@
       <c r="E270">
         <v>1.1791414592425826</v>
       </c>
-      <c r="F270">
-        <v>12.743656530174899</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>44170</v>
       </c>
@@ -5832,11 +5019,8 @@
       <c r="E271">
         <v>1.0630171768389822</v>
       </c>
-      <c r="F271">
-        <v>12.244191320520873</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>44170</v>
       </c>
@@ -5852,11 +5036,8 @@
       <c r="E272">
         <v>1.2445949021392806</v>
       </c>
-      <c r="F272">
-        <v>13.876767293400027</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>44170</v>
       </c>
@@ -5872,11 +5053,8 @@
       <c r="E273">
         <v>1.3763145141693875</v>
       </c>
-      <c r="F273">
-        <v>13.376355082450869</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44170</v>
       </c>
@@ -5892,11 +5070,8 @@
       <c r="E274">
         <v>1.2721351516385102</v>
       </c>
-      <c r="F274">
-        <v>12.443490122812296</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>44170</v>
       </c>
@@ -5912,11 +5087,8 @@
       <c r="E275">
         <v>1.314935866393909</v>
       </c>
-      <c r="F275">
-        <v>14.363593190382081</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>44170</v>
       </c>
@@ -5932,11 +5104,8 @@
       <c r="E276">
         <v>1.2435602928153053</v>
       </c>
-      <c r="F276">
-        <v>12.981299094662521</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>44170</v>
       </c>
@@ -5952,11 +5121,8 @@
       <c r="E277">
         <v>1.3631829598791607</v>
       </c>
-      <c r="F277">
-        <v>13.884208454898864</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44170</v>
       </c>
@@ -5972,11 +5138,8 @@
       <c r="E278">
         <v>1.2653871072238416</v>
       </c>
-      <c r="F278">
-        <v>12.235205815194355</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>44170</v>
       </c>
@@ -5992,11 +5155,8 @@
       <c r="E279">
         <v>1.2472999624342596</v>
       </c>
-      <c r="F279">
-        <v>12.651618922732013</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>44170</v>
       </c>
@@ -6012,11 +5172,8 @@
       <c r="E280">
         <v>1.2314868804664723</v>
       </c>
-      <c r="F280">
-        <v>13.801184144732581</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>44170</v>
       </c>
@@ -6032,11 +5189,8 @@
       <c r="E281">
         <v>1.2930794618110915</v>
       </c>
-      <c r="F281">
-        <v>12.261433989533609</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>44218</v>
       </c>
@@ -6052,11 +5206,8 @@
       <c r="E282">
         <v>1.1289478601075549</v>
       </c>
-      <c r="F282">
-        <v>15.560150573443551</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>44218</v>
       </c>
@@ -6072,11 +5223,8 @@
       <c r="E283">
         <v>1.1558132591044374</v>
       </c>
-      <c r="F283">
-        <v>13.514031915131733</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>44218</v>
       </c>
@@ -6092,11 +5240,8 @@
       <c r="E284">
         <v>1.1177775951343798</v>
       </c>
-      <c r="F284">
-        <v>13.694797196727654</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>44218</v>
       </c>
@@ -6112,11 +5257,8 @@
       <c r="E285">
         <v>1.060782497088798</v>
       </c>
-      <c r="F285">
-        <v>12.98809404371351</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>44218</v>
       </c>
@@ -6132,11 +5274,8 @@
       <c r="E286">
         <v>1.2064657791465683</v>
       </c>
-      <c r="F286">
-        <v>13.684668062163992</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>44218</v>
       </c>
@@ -6152,11 +5291,8 @@
       <c r="E287">
         <v>1.167091312566779</v>
       </c>
-      <c r="F287">
-        <v>13.344329476251701</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>44218</v>
       </c>
@@ -6172,11 +5308,8 @@
       <c r="E288">
         <v>1.1939348501068621</v>
       </c>
-      <c r="F288">
-        <v>12.805625672787093</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>44218</v>
       </c>
@@ -6192,11 +5325,8 @@
       <c r="E289">
         <v>1.0866967688379641</v>
       </c>
-      <c r="F289">
-        <v>12.520434921442476</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>44218</v>
       </c>
@@ -6212,11 +5342,8 @@
       <c r="E290">
         <v>1.1334860320936078</v>
       </c>
-      <c r="F290">
-        <v>11.556694517441207</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>44218</v>
       </c>
@@ -6232,11 +5359,8 @@
       <c r="E291">
         <v>1.1687363038714391</v>
       </c>
-      <c r="F291">
-        <v>11.560985299703081</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>44218</v>
       </c>
@@ -6252,11 +5376,8 @@
       <c r="E292">
         <v>1.1546713456957935</v>
       </c>
-      <c r="F292">
-        <v>13.37281373406004</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>44218</v>
       </c>
@@ -6272,11 +5393,8 @@
       <c r="E293">
         <v>1.2135075525676302</v>
       </c>
-      <c r="F293">
-        <v>11.220759889714984</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>44218</v>
       </c>
@@ -6292,11 +5410,8 @@
       <c r="E294">
         <v>1.3091044447368658</v>
       </c>
-      <c r="F294">
-        <v>13.50546050759632</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44218</v>
       </c>
@@ -6312,11 +5427,8 @@
       <c r="E295">
         <v>1.230394219468667</v>
       </c>
-      <c r="F295">
-        <v>12.681506373198026</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44218</v>
       </c>
@@ -6332,11 +5444,8 @@
       <c r="E296">
         <v>1.1873711860304459</v>
       </c>
-      <c r="F296">
-        <v>13.107420731238664</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44218</v>
       </c>
@@ -6352,11 +5461,8 @@
       <c r="E297">
         <v>1.1607492636496859</v>
       </c>
-      <c r="F297">
-        <v>13.876283364251584</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>44218</v>
       </c>
@@ -6372,11 +5478,8 @@
       <c r="E298">
         <v>1.1352167427245574</v>
       </c>
-      <c r="F298">
-        <v>12.980356262822504</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>44218</v>
       </c>
@@ -6392,11 +5495,8 @@
       <c r="E299">
         <v>1.2137763617053559</v>
       </c>
-      <c r="F299">
-        <v>12.805425377030151</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44218</v>
       </c>
@@ -6412,11 +5512,8 @@
       <c r="E300">
         <v>1.1863425925925926</v>
       </c>
-      <c r="F300">
-        <v>12.578967104056217</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>44218</v>
       </c>
@@ -6432,11 +5529,8 @@
       <c r="E301">
         <v>1.1211509286973635</v>
       </c>
-      <c r="F301">
-        <v>13.456928711137463</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>44218</v>
       </c>
@@ -6452,11 +5546,8 @@
       <c r="E302">
         <v>1.128486478209995</v>
       </c>
-      <c r="F302">
-        <v>12.8056256727871</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>44218</v>
       </c>
@@ -6472,11 +5563,8 @@
       <c r="E303">
         <v>1.2262784990279041</v>
       </c>
-      <c r="F303">
-        <v>12.162901182767309</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44218</v>
       </c>
@@ -6492,11 +5580,8 @@
       <c r="E304">
         <v>1.1671928257889244</v>
       </c>
-      <c r="F304">
-        <v>12.218013964572142</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44218</v>
       </c>
@@ -6512,11 +5597,8 @@
       <c r="E305">
         <v>1.2176226526518301</v>
       </c>
-      <c r="F305">
-        <v>12.551864850062966</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>44218</v>
       </c>
@@ -6532,11 +5614,8 @@
       <c r="E306">
         <v>1.1999671241883785</v>
       </c>
-      <c r="F306">
-        <v>12.691278564715212</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>44218</v>
       </c>
@@ -6552,11 +5631,8 @@
       <c r="E307">
         <v>1.2328674763780665</v>
       </c>
-      <c r="F307">
-        <v>12.805625672787087</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>44218</v>
       </c>
@@ -6572,11 +5648,8 @@
       <c r="E308">
         <v>1.133346641016473</v>
       </c>
-      <c r="F308">
-        <v>11.2258290610004</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>44218</v>
       </c>
@@ -6592,11 +5665,8 @@
       <c r="E309">
         <v>1.151626425548997</v>
       </c>
-      <c r="F309">
-        <v>11.987734252168222</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>44218</v>
       </c>
@@ -6612,11 +5682,8 @@
       <c r="E310">
         <v>1.1598307456295622</v>
       </c>
-      <c r="F310">
-        <v>12.02072446841313</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>44218</v>
       </c>
@@ -6632,11 +5699,8 @@
       <c r="E311">
         <v>1.2375024386077467</v>
       </c>
-      <c r="F311">
-        <v>12.514370254492961</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44218</v>
       </c>
@@ -6652,11 +5716,8 @@
       <c r="E312">
         <v>1.1249915721949857</v>
       </c>
-      <c r="F312">
-        <v>13.994386954931894</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>44218</v>
       </c>
@@ -6672,11 +5733,8 @@
       <c r="E313">
         <v>1.2330802550283986</v>
       </c>
-      <c r="F313">
-        <v>13.440678461961621</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>44218</v>
       </c>
@@ -6692,11 +5750,8 @@
       <c r="E314">
         <v>1.1821839505094811</v>
       </c>
-      <c r="F314">
-        <v>13.594781863426094</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>44218</v>
       </c>
@@ -6712,11 +5767,8 @@
       <c r="E315">
         <v>1.1626830381557522</v>
       </c>
-      <c r="F315">
-        <v>13.263538501128918</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44218</v>
       </c>
@@ -6732,11 +5784,8 @@
       <c r="E316">
         <v>1.1475803924892296</v>
       </c>
-      <c r="F316">
-        <v>13.344329476251708</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>44218</v>
       </c>
@@ -6752,11 +5801,8 @@
       <c r="E317">
         <v>1.2074408542644044</v>
       </c>
-      <c r="F317">
-        <v>13.711127494371357</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>44218</v>
       </c>
@@ -6772,11 +5818,8 @@
       <c r="E318">
         <v>1.1868035536674588</v>
       </c>
-      <c r="F318">
-        <v>12.644115883201087</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>44218</v>
       </c>
@@ -6792,11 +5835,8 @@
       <c r="E319">
         <v>1.1839642489226796</v>
       </c>
-      <c r="F319">
-        <v>12.374210325302903</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>44218</v>
       </c>
@@ -6812,11 +5852,8 @@
       <c r="E320">
         <v>1.1375342783766922</v>
       </c>
-      <c r="F320">
-        <v>12.805625672787093</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>44218</v>
       </c>
@@ -6832,11 +5869,8 @@
       <c r="E321">
         <v>1.2345679012345678</v>
       </c>
-      <c r="F321">
-        <v>13.251745048036435</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>44224</v>
       </c>
@@ -6852,11 +5886,8 @@
       <c r="E322">
         <v>1.3898912423215064</v>
       </c>
-      <c r="F322">
-        <v>13.854275629746573</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>44224</v>
       </c>
@@ -6872,11 +5903,8 @@
       <c r="E323">
         <v>1.2456154336734697</v>
       </c>
-      <c r="F323">
-        <v>13.564337613808092</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>44224</v>
       </c>
@@ -6892,11 +5920,8 @@
       <c r="E324">
         <v>1.3885569824040651</v>
       </c>
-      <c r="F324">
-        <v>13.254186868285537</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>44224</v>
       </c>
@@ -6912,11 +5937,8 @@
       <c r="E325">
         <v>1.3336658378845394</v>
       </c>
-      <c r="F325">
-        <v>12.931257728742654</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>44224</v>
       </c>
@@ -6932,11 +5954,8 @@
       <c r="E326">
         <v>1.3821401576503618</v>
       </c>
-      <c r="F326">
-        <v>14.039209519076639</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>44224</v>
       </c>
@@ -6952,11 +5971,8 @@
       <c r="E327">
         <v>1.4343513332030018</v>
       </c>
-      <c r="F327">
-        <v>13.254186868285544</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>44224</v>
       </c>
@@ -6972,11 +5988,8 @@
       <c r="E328">
         <v>1.3428093267295387</v>
       </c>
-      <c r="F328">
-        <v>13.751020220435926</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>44224</v>
       </c>
@@ -6992,11 +6005,8 @@
       <c r="E329">
         <v>1.325</v>
       </c>
-      <c r="F329">
-        <v>12.990012085589916</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44224</v>
       </c>
@@ -7012,11 +6022,8 @@
       <c r="E330">
         <v>1.6988449304706281</v>
       </c>
-      <c r="F330">
-        <v>12.999210460730239</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44224</v>
       </c>
@@ -7032,11 +6039,8 @@
       <c r="E331">
         <v>1.370546557737069</v>
       </c>
-      <c r="F331">
-        <v>12.867166171926989</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>44224</v>
       </c>
@@ -7052,11 +6056,8 @@
       <c r="E332">
         <v>1.2487226607782458</v>
       </c>
-      <c r="F332">
-        <v>13.254186868285544</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>44224</v>
       </c>
@@ -7072,11 +6073,8 @@
       <c r="E333">
         <v>1.338987919894439</v>
       </c>
-      <c r="F333">
-        <v>13.13889360771282</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>44224</v>
       </c>
@@ -7092,11 +6090,8 @@
       <c r="E334">
         <v>1.3464691458336355</v>
       </c>
-      <c r="F334">
-        <v>12.978814571373027</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44224</v>
       </c>
@@ -7112,11 +6107,8 @@
       <c r="E335">
         <v>1.2627197879352312</v>
       </c>
-      <c r="F335">
-        <v>12.628647596881493</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44224</v>
       </c>
@@ -7132,11 +6124,8 @@
       <c r="E336">
         <v>1.3711495116453793</v>
       </c>
-      <c r="F336">
-        <v>12.813732333779491</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>44224</v>
       </c>
@@ -7152,11 +6141,8 @@
       <c r="E337">
         <v>1.3140279439636646</v>
       </c>
-      <c r="F337">
-        <v>12.81848572996773</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44224</v>
       </c>
@@ -7172,11 +6158,8 @@
       <c r="E338">
         <v>1.3299508250682428</v>
       </c>
-      <c r="F338">
-        <v>12.876514888980832</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44224</v>
       </c>
@@ -7192,11 +6175,8 @@
       <c r="E339">
         <v>1.241189328892476</v>
       </c>
-      <c r="F339">
-        <v>13.451920938476405</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>44224</v>
       </c>
@@ -7212,11 +6192,8 @@
       <c r="E340">
         <v>1.3434402332361517</v>
       </c>
-      <c r="F340">
-        <v>12.917398190477792</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44224</v>
       </c>
@@ -7232,11 +6209,8 @@
       <c r="E341">
         <v>1.0075801749271136</v>
       </c>
-      <c r="F341">
-        <v>12.909958379167781</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>44224</v>
       </c>
@@ -7252,11 +6226,8 @@
       <c r="E342">
         <v>1.3659510014749163</v>
       </c>
-      <c r="F342">
-        <v>13.33944207268493</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44224</v>
       </c>
@@ -7272,11 +6243,8 @@
       <c r="E343">
         <v>1.3849606778031756</v>
       </c>
-      <c r="F343">
-        <v>13.481449582051889</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>44224</v>
       </c>
@@ -7292,11 +6260,8 @@
       <c r="E344">
         <v>1.3545795440509882</v>
       </c>
-      <c r="F344">
-        <v>15.001968353039016</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>44224</v>
       </c>
@@ -7312,11 +6277,8 @@
       <c r="E345">
         <v>1.3031550068587106</v>
       </c>
-      <c r="F345">
-        <v>12.747019086095325</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>44224</v>
       </c>
@@ -7332,11 +6294,8 @@
       <c r="E346">
         <v>1.4105675657680112</v>
       </c>
-      <c r="F346">
-        <v>12.540999808692494</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>44224</v>
       </c>
@@ -7352,11 +6311,8 @@
       <c r="E347">
         <v>1.3704621664965739</v>
       </c>
-      <c r="F347">
-        <v>12.811877278879665</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>44224</v>
       </c>
@@ -7372,11 +6328,8 @@
       <c r="E348">
         <v>1.3121446274967197</v>
       </c>
-      <c r="F348">
-        <v>13.538506344561171</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>44224</v>
       </c>
@@ -7392,11 +6345,8 @@
       <c r="E349">
         <v>1.2003237715436401</v>
       </c>
-      <c r="F349">
-        <v>13.134220343078091</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>44224</v>
       </c>
@@ -7412,11 +6362,8 @@
       <c r="E350">
         <v>1.2360660113327937</v>
       </c>
-      <c r="F350">
-        <v>12.990012085589905</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>44224</v>
       </c>
@@ -7432,11 +6379,8 @@
       <c r="E351">
         <v>1.1739293764087149</v>
       </c>
-      <c r="F351">
-        <v>13.250533220667666</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>44224</v>
       </c>
@@ -7452,11 +6396,8 @@
       <c r="E352">
         <v>1.3694194635284036</v>
       </c>
-      <c r="F352">
-        <v>13.823969829246071</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>44224</v>
       </c>
@@ -7472,11 +6413,8 @@
       <c r="E353">
         <v>1.2955689045980523</v>
       </c>
-      <c r="F353">
-        <v>13.594107496108482</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>44224</v>
       </c>
@@ -7492,11 +6430,8 @@
       <c r="E354">
         <v>1.2648165461567942</v>
       </c>
-      <c r="F354">
-        <v>14.57687524608531</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>44224</v>
       </c>
@@ -7512,11 +6447,8 @@
       <c r="E355">
         <v>1.3078169232186323</v>
       </c>
-      <c r="F355">
-        <v>13.404626879995188</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>44224</v>
       </c>
@@ -7532,11 +6464,8 @@
       <c r="E356">
         <v>1.3631829598791607</v>
       </c>
-      <c r="F356">
-        <v>13.138297476084663</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>44224</v>
       </c>
@@ -7552,11 +6481,8 @@
       <c r="E357">
         <v>1.2890447200728263</v>
       </c>
-      <c r="F357">
-        <v>13.33944207268493</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>44224</v>
       </c>
@@ -7572,11 +6498,8 @@
       <c r="E358">
         <v>1.3413033969966468</v>
       </c>
-      <c r="F358">
-        <v>12.804960311308085</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>44224</v>
       </c>
@@ -7592,11 +6515,8 @@
       <c r="E359">
         <v>1.2950861745602431</v>
       </c>
-      <c r="F359">
-        <v>12.943830352913267</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>44224</v>
       </c>
@@ -7612,11 +6532,8 @@
       <c r="E360">
         <v>1.2938395983921889</v>
       </c>
-      <c r="F360">
-        <v>12.990012085589916</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>44224</v>
       </c>
@@ -7632,11 +6549,8 @@
       <c r="E361">
         <v>1.5376694853477184</v>
       </c>
-      <c r="F361">
-        <v>12.970148690126877</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>44232</v>
       </c>
@@ -7652,11 +6566,8 @@
       <c r="E362">
         <v>1.2962659803983676</v>
       </c>
-      <c r="F362">
-        <v>14.771423763079456</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>44232</v>
       </c>
@@ -7672,11 +6583,8 @@
       <c r="E363">
         <v>1.4849373356444358</v>
       </c>
-      <c r="F363">
-        <v>13.686198393106686</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>44232</v>
       </c>
@@ -7692,11 +6600,8 @@
       <c r="E364">
         <v>1.3334945380063721</v>
       </c>
-      <c r="F364">
-        <v>13.601381894498736</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>44232</v>
       </c>
@@ -7712,11 +6617,8 @@
       <c r="E365">
         <v>1.3801671513864822</v>
       </c>
-      <c r="F365">
-        <v>13.500057675046182</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>44232</v>
       </c>
@@ -7732,11 +6634,8 @@
       <c r="E366">
         <v>1.3807840881071751</v>
       </c>
-      <c r="F366">
-        <v>12.624537974499544</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>44232</v>
       </c>
@@ -7752,11 +6651,8 @@
       <c r="E367">
         <v>1.3345879646501462</v>
       </c>
-      <c r="F367">
-        <v>13.174159563475563</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>44232</v>
       </c>
@@ -7772,11 +6668,8 @@
       <c r="E368">
         <v>1.3371340994510765</v>
       </c>
-      <c r="F368">
-        <v>13.36071476318463</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>44232</v>
       </c>
@@ -7792,11 +6685,8 @@
       <c r="E369">
         <v>1.2823709979659033</v>
       </c>
-      <c r="F369">
-        <v>14.37407640318939</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>44232</v>
       </c>
@@ -7812,11 +6702,8 @@
       <c r="E370">
         <v>1.35</v>
       </c>
-      <c r="F370">
-        <v>13.601381894498736</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44232</v>
       </c>
@@ -7832,11 +6719,8 @@
       <c r="E371">
         <v>1.424387485988958</v>
       </c>
-      <c r="F371">
-        <v>13.101650709841689</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>44232</v>
       </c>
@@ -7852,11 +6736,8 @@
       <c r="E372">
         <v>1.3124018873750325</v>
       </c>
-      <c r="F372">
-        <v>13.689796053126784</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>44232</v>
       </c>
@@ -7872,11 +6753,8 @@
       <c r="E373">
         <v>1.3513210901068626</v>
       </c>
-      <c r="F373">
-        <v>14.188836168560494</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44232</v>
       </c>
@@ -7892,11 +6770,8 @@
       <c r="E374">
         <v>1.2677422755573506</v>
       </c>
-      <c r="F374">
-        <v>13.688691747404414</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>44232</v>
       </c>
@@ -7912,11 +6787,8 @@
       <c r="E375">
         <v>1.2613051327441396</v>
       </c>
-      <c r="F375">
-        <v>13.684812495027471</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>44232</v>
       </c>
@@ -7932,11 +6804,8 @@
       <c r="E376">
         <v>1.3672989437921774</v>
       </c>
-      <c r="F376">
-        <v>14.004943997900231</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44232</v>
       </c>
@@ -7952,11 +6821,8 @@
       <c r="E377">
         <v>1.3605442176870748</v>
       </c>
-      <c r="F377">
-        <v>13.602248406340085</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>44232</v>
       </c>
@@ -7972,11 +6838,8 @@
       <c r="E378">
         <v>1.2852683555769318</v>
       </c>
-      <c r="F378">
-        <v>13.24352812983798</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>44232</v>
       </c>
@@ -7992,11 +6855,8 @@
       <c r="E379">
         <v>1.268939074301332</v>
       </c>
-      <c r="F379">
-        <v>14.020732093704996</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44232</v>
       </c>
@@ -8012,11 +6872,8 @@
       <c r="E380">
         <v>1.2556614307764973</v>
       </c>
-      <c r="F380">
-        <v>13.060337472242674</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>44232</v>
       </c>
@@ -8032,11 +6889,8 @@
       <c r="E381">
         <v>1.3280797887731481</v>
       </c>
-      <c r="F381">
-        <v>13.030672061237507</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44232</v>
       </c>
@@ -8052,11 +6906,8 @@
       <c r="E382">
         <v>1.448379982096849</v>
       </c>
-      <c r="F382">
-        <v>13.683335822569642</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>44232</v>
       </c>
@@ -8072,11 +6923,8 @@
       <c r="E383">
         <v>1.4020589577760543</v>
       </c>
-      <c r="F383">
-        <v>13.500057675046182</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>44232</v>
       </c>
@@ -8092,11 +6940,8 @@
       <c r="E384">
         <v>1.3711495116453793</v>
       </c>
-      <c r="F384">
-        <v>13.37361767760637</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44232</v>
       </c>
@@ -8112,11 +6957,8 @@
       <c r="E385">
         <v>1.3038460014302753</v>
       </c>
-      <c r="F385">
-        <v>14.196224503101687</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>44232</v>
       </c>
@@ -8132,11 +6974,8 @@
       <c r="E386">
         <v>1.4465357113503738</v>
       </c>
-      <c r="F386">
-        <v>13.36071476318463</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>44232</v>
       </c>
@@ -8152,11 +6991,8 @@
       <c r="E387">
         <v>1.2652727179930245</v>
       </c>
-      <c r="F387">
-        <v>12.873172096224478</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44232</v>
       </c>
@@ -8172,11 +7008,8 @@
       <c r="E388">
         <v>1.4735126491451065</v>
       </c>
-      <c r="F388">
-        <v>13.87265527282524</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>44232</v>
       </c>
@@ -8192,11 +7025,8 @@
       <c r="E389">
         <v>1.2948115473197928</v>
       </c>
-      <c r="F389">
-        <v>14.123368520296575</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>44232</v>
       </c>
@@ -8212,11 +7042,8 @@
       <c r="E390">
         <v>1.3140279439636646</v>
       </c>
-      <c r="F390">
-        <v>13.127199173505995</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44232</v>
       </c>
@@ -8232,11 +7059,8 @@
       <c r="E391">
         <v>1.1499868839333776</v>
       </c>
-      <c r="F391">
-        <v>13.498131264703973</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>44232</v>
       </c>
@@ -8252,11 +7076,8 @@
       <c r="E392">
         <v>1.3953800427067418</v>
       </c>
-      <c r="F392">
-        <v>14.896812040937412</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>44232</v>
       </c>
@@ -8272,11 +7093,8 @@
       <c r="E393">
         <v>1.3747415485888654</v>
       </c>
-      <c r="F393">
-        <v>14.300353803974968</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>44232</v>
       </c>
@@ -8292,11 +7110,8 @@
       <c r="E394">
         <v>1.3807840881071751</v>
       </c>
-      <c r="F394">
-        <v>14.203592283846945</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>44232</v>
       </c>
@@ -8312,11 +7127,8 @@
       <c r="E395">
         <v>1.4239819815892278</v>
       </c>
-      <c r="F395">
-        <v>13.496059818500328</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>44232</v>
       </c>
@@ -8332,11 +7144,8 @@
       <c r="E396">
         <v>1.364856372603416</v>
       </c>
-      <c r="F396">
-        <v>14.459936677294429</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>44232</v>
       </c>
@@ -8352,11 +7161,8 @@
       <c r="E397">
         <v>1.3351855818946461</v>
       </c>
-      <c r="F397">
-        <v>13.165869085520793</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>44232</v>
       </c>
@@ -8372,11 +7178,8 @@
       <c r="E398">
         <v>1.3320165031053357</v>
       </c>
-      <c r="F398">
-        <v>13.088289073200448</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>44232</v>
       </c>
@@ -8392,11 +7195,8 @@
       <c r="E399">
         <v>1.3151449802063035</v>
       </c>
-      <c r="F399">
-        <v>13.491470592785268</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>44232</v>
       </c>
@@ -8412,11 +7212,8 @@
       <c r="E400">
         <v>1.2624974363572465</v>
       </c>
-      <c r="F400">
-        <v>13.690803281306458</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>44232</v>
       </c>
@@ -8432,11 +7229,8 @@
       <c r="E401">
         <v>1.3457297471878455</v>
       </c>
-      <c r="F401">
-        <v>13.088289073200455</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>44239</v>
       </c>
@@ -8452,11 +7246,8 @@
       <c r="E402">
         <v>1.1214061201398657</v>
       </c>
-      <c r="F402">
-        <v>15.699499449975143</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>44239</v>
       </c>
@@ -8472,11 +7263,8 @@
       <c r="E403">
         <v>1.1929310773322943</v>
       </c>
-      <c r="F403">
-        <v>15.214322595723187</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>44239</v>
       </c>
@@ -8492,11 +7280,8 @@
       <c r="E404">
         <v>1.0879820482962033</v>
       </c>
-      <c r="F404">
-        <v>14.842314591478289</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>44239</v>
       </c>
@@ -8512,11 +7297,8 @@
       <c r="E405">
         <v>1.0734936035159932</v>
       </c>
-      <c r="F405">
-        <v>13.741068064705336</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>44239</v>
       </c>
@@ -8532,11 +7314,8 @@
       <c r="E406">
         <v>1.0997932388710923</v>
       </c>
-      <c r="F406">
-        <v>13.957816577326387</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>44239</v>
       </c>
@@ -8552,11 +7331,8 @@
       <c r="E407">
         <v>1.1151815995036083</v>
       </c>
-      <c r="F407">
-        <v>15.289495826727439</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>44239</v>
       </c>
@@ -8572,11 +7348,8 @@
       <c r="E408">
         <v>1.1148550923959384</v>
       </c>
-      <c r="F408">
-        <v>15.07859104419796</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>44239</v>
       </c>
@@ -8592,11 +7365,8 @@
       <c r="E409">
         <v>1.1453090950203588</v>
       </c>
-      <c r="F409">
-        <v>14.705222006444135</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>44239</v>
       </c>
@@ -8612,11 +7382,8 @@
       <c r="E410">
         <v>1.1015830079626536</v>
       </c>
-      <c r="F410">
-        <v>14.15072310869971</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>44239</v>
       </c>
@@ -8632,11 +7399,8 @@
       <c r="E411">
         <v>1.1148360118562104</v>
       </c>
-      <c r="F411">
-        <v>14.038316419582891</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>44239</v>
       </c>
@@ -8652,11 +7416,8 @@
       <c r="E412">
         <v>1.2105941675557585</v>
       </c>
-      <c r="F412">
-        <v>14.989518015572076</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>44239</v>
       </c>
@@ -8672,11 +7433,8 @@
       <c r="E413">
         <v>1.2263041070954579</v>
       </c>
-      <c r="F413">
-        <v>15.648333155916976</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>44239</v>
       </c>
@@ -8692,11 +7450,8 @@
       <c r="E414">
         <v>1.3122532963802807</v>
       </c>
-      <c r="F414">
-        <v>15.362944066199184</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>44239</v>
       </c>
@@ -8712,11 +7467,8 @@
       <c r="E415">
         <v>1.3164168079093133</v>
       </c>
-      <c r="F415">
-        <v>16.089050117634489</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>44239</v>
       </c>
@@ -8732,11 +7484,8 @@
       <c r="E416">
         <v>1.2994690542706788</v>
       </c>
-      <c r="F416">
-        <v>15.097864493060611</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>44239</v>
       </c>
@@ -8752,11 +7501,8 @@
       <c r="E417">
         <v>1.2547981550992295</v>
       </c>
-      <c r="F417">
-        <v>14.134505820520447</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>44239</v>
       </c>
@@ -8772,11 +7518,8 @@
       <c r="E418">
         <v>1.2774204962757336</v>
       </c>
-      <c r="F418">
-        <v>14.451046630787316</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>44239</v>
       </c>
@@ -8792,11 +7535,8 @@
       <c r="E419">
         <v>1.3237721480774567</v>
       </c>
-      <c r="F419">
-        <v>15.271155151448864</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>44239</v>
       </c>
@@ -8812,11 +7552,8 @@
       <c r="E420">
         <v>1.258319781610594</v>
       </c>
-      <c r="F420">
-        <v>14.011216077632579</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>44239</v>
       </c>
@@ -8832,11 +7569,8 @@
       <c r="E421">
         <v>1.2600350837594629</v>
       </c>
-      <c r="F421">
-        <v>13.342809789479787</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>44239</v>
       </c>
@@ -8852,11 +7586,8 @@
       <c r="E422">
         <v>1.279265242527369</v>
       </c>
-      <c r="F422">
-        <v>16.230883454284701</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>44239</v>
       </c>
@@ -8872,11 +7603,8 @@
       <c r="E423">
         <v>0.99385558721758605</v>
       </c>
-      <c r="F423">
-        <v>14.817953078085038</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>44239</v>
       </c>
@@ -8892,11 +7620,8 @@
       <c r="E424">
         <v>1.0850694444444444</v>
       </c>
-      <c r="F424">
-        <v>14.141305392013626</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>44239</v>
       </c>
@@ -8912,11 +7637,8 @@
       <c r="E425">
         <v>1.0751999999999999</v>
       </c>
-      <c r="F425">
-        <v>14.842314591478289</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>44239</v>
       </c>
@@ -8932,11 +7654,8 @@
       <c r="E426">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F426">
-        <v>14.245791497289851</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>44239</v>
       </c>
@@ -8952,11 +7671,8 @@
       <c r="E427">
         <v>1.1115037738331879</v>
       </c>
-      <c r="F427">
-        <v>14.642457916231745</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>44239</v>
       </c>
@@ -8972,11 +7688,8 @@
       <c r="E428">
         <v>1.1743621476460937</v>
       </c>
-      <c r="F428">
-        <v>13.67350416175441</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>44239</v>
       </c>
@@ -8992,11 +7705,8 @@
       <c r="E429">
         <v>1.0797969981643452</v>
       </c>
-      <c r="F429">
-        <v>13.301035698037165</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>44239</v>
       </c>
@@ -9012,11 +7722,8 @@
       <c r="E430">
         <v>1.125</v>
       </c>
-      <c r="F430">
-        <v>13.957816577326389</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>44239</v>
       </c>
@@ -9032,11 +7739,8 @@
       <c r="E431">
         <v>1.2137763617053559</v>
       </c>
-      <c r="F431">
-        <v>13.8000797747747</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>44239</v>
       </c>
@@ -9052,11 +7756,8 @@
       <c r="E432">
         <v>1.1013396893235801</v>
       </c>
-      <c r="F432">
-        <v>14.518192030732449</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>44239</v>
       </c>
@@ -9072,11 +7773,8 @@
       <c r="E433">
         <v>1.1269722013523666</v>
       </c>
-      <c r="F433">
-        <v>13.957816577326387</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>44239</v>
       </c>
@@ -9092,11 +7790,8 @@
       <c r="E434">
         <v>1.0684638777019808</v>
       </c>
-      <c r="F434">
-        <v>13.957816577326396</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>44239</v>
       </c>
@@ -9112,11 +7807,8 @@
       <c r="E435">
         <v>1.0725004671021772</v>
       </c>
-      <c r="F435">
-        <v>14.032586524041443</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>44239</v>
       </c>
@@ -9132,11 +7824,8 @@
       <c r="E436">
         <v>1.1015818238999058</v>
       </c>
-      <c r="F436">
-        <v>14.032586524041443</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>44239</v>
       </c>
@@ -9152,11 +7841,8 @@
       <c r="E437">
         <v>1.0355029585798818</v>
       </c>
-      <c r="F437">
-        <v>14.011216077632588</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>44239</v>
       </c>
@@ -9172,11 +7858,8 @@
       <c r="E438">
         <v>1.1150668564839494</v>
       </c>
-      <c r="F438">
-        <v>14.220888447772319</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>44239</v>
       </c>
@@ -9192,11 +7875,8 @@
       <c r="E439">
         <v>1.0496000000000001</v>
       </c>
-      <c r="F439">
-        <v>14.508303409265061</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>44239</v>
       </c>
@@ -9212,11 +7892,8 @@
       <c r="E440">
         <v>1.0941698852855339</v>
       </c>
-      <c r="F440">
-        <v>13.197154339776398</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>44239</v>
       </c>
@@ -9232,11 +7909,8 @@
       <c r="E441">
         <v>1.0883109235293686</v>
       </c>
-      <c r="F441">
-        <v>13.643340555542133</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>44253</v>
       </c>
@@ -9252,11 +7926,8 @@
       <c r="E442">
         <v>1.2482826175452881</v>
       </c>
-      <c r="F442">
-        <v>14.94832469552534</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>44253</v>
       </c>
@@ -9272,11 +7943,8 @@
       <c r="E443">
         <v>1.1486557445914722</v>
       </c>
-      <c r="F443">
-        <v>14.770134065325482</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>44253</v>
       </c>
@@ -9292,11 +7960,8 @@
       <c r="E444">
         <v>1.1870845204178537</v>
       </c>
-      <c r="F444">
-        <v>15.304661487242322</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>44253</v>
       </c>
@@ -9312,11 +7977,8 @@
       <c r="E445">
         <v>1.1420671885858262</v>
       </c>
-      <c r="F445">
-        <v>14.61842001859319</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>44253</v>
       </c>
@@ -9332,11 +7994,8 @@
       <c r="E446">
         <v>1.0424239375149358</v>
       </c>
-      <c r="F446">
-        <v>14.952832071112148</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>44253</v>
       </c>
@@ -9352,11 +8011,8 @@
       <c r="E447">
         <v>1.1709148839326353</v>
       </c>
-      <c r="F447">
-        <v>14.808647483258749</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>44253</v>
       </c>
@@ -9372,11 +8028,8 @@
       <c r="E448">
         <v>1.1273736037131323</v>
       </c>
-      <c r="F448">
-        <v>14.661212924999898</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>44253</v>
       </c>
@@ -9392,11 +8045,8 @@
       <c r="E449">
         <v>1.0774573501275511</v>
       </c>
-      <c r="F449">
-        <v>14.813938386892712</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>44253</v>
       </c>
@@ -9412,11 +8062,8 @@
       <c r="E450">
         <v>1.1022806862700441</v>
       </c>
-      <c r="F450">
-        <v>15.327354379168895</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>44253</v>
       </c>
@@ -9432,11 +8079,8 @@
       <c r="E451">
         <v>1.0716054597270606</v>
       </c>
-      <c r="F451">
-        <v>14.71029763043024</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>44253</v>
       </c>
@@ -9452,11 +8096,8 @@
       <c r="E452">
         <v>1.1866524285858144</v>
       </c>
-      <c r="F452">
-        <v>14.60952266423269</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>44253</v>
       </c>
@@ -9472,11 +8113,8 @@
       <c r="E453">
         <v>1.0935762738551438</v>
       </c>
-      <c r="F453">
-        <v>14.344825863423916</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>44253</v>
       </c>
@@ -9492,11 +8130,8 @@
       <c r="E454">
         <v>1.0667684319865689</v>
       </c>
-      <c r="F454">
-        <v>14.388593043684601</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>44253</v>
       </c>
@@ -9512,11 +8147,8 @@
       <c r="E455">
         <v>1.1504507888805411</v>
       </c>
-      <c r="F455">
-        <v>14.310985687927044</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>44253</v>
       </c>
@@ -9532,11 +8164,8 @@
       <c r="E456">
         <v>1.1811433015046295</v>
       </c>
-      <c r="F456">
-        <v>14.061347370034557</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>44253</v>
       </c>
@@ -9552,11 +8181,8 @@
       <c r="E457">
         <v>1.2492808416207777</v>
       </c>
-      <c r="F457">
-        <v>14.84661594827487</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>44253</v>
       </c>
@@ -9572,11 +8198,8 @@
       <c r="E458">
         <v>1.1812904868152201</v>
       </c>
-      <c r="F458">
-        <v>14.963074297400379</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>44253</v>
       </c>
@@ -9592,11 +8215,8 @@
       <c r="E459">
         <v>1.1448159278737791</v>
       </c>
-      <c r="F459">
-        <v>14.388593043684601</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>44253</v>
       </c>
@@ -9612,11 +8232,8 @@
       <c r="E460">
         <v>1.1671346528829925</v>
       </c>
-      <c r="F460">
-        <v>14.905399113663362</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>44253</v>
       </c>
@@ -9632,11 +8249,8 @@
       <c r="E461">
         <v>1.0609248269758129</v>
       </c>
-      <c r="F461">
-        <v>14.316162654764959</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>44253</v>
       </c>
@@ -9652,11 +8266,8 @@
       <c r="E462">
         <v>1.2285896501457725</v>
       </c>
-      <c r="F462">
-        <v>15.147646843068628</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>44253</v>
       </c>
@@ -9672,11 +8283,8 @@
       <c r="E463">
         <v>1.1485010497326795</v>
       </c>
-      <c r="F463">
-        <v>14.267184977106515</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>44253</v>
       </c>
@@ -9692,11 +8300,8 @@
       <c r="E464">
         <v>1.1882176227632015</v>
       </c>
-      <c r="F464">
-        <v>14.91423545962277</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>44253</v>
       </c>
@@ -9712,11 +8317,8 @@
       <c r="E465">
         <v>1.1234731212480964</v>
       </c>
-      <c r="F465">
-        <v>14.385586739892451</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>44253</v>
       </c>
@@ -9732,11 +8334,8 @@
       <c r="E466">
         <v>0.88625000000000009</v>
       </c>
-      <c r="F466">
-        <v>14.986999626037042</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>44253</v>
       </c>
@@ -9752,11 +8351,8 @@
       <c r="E467">
         <v>1.1772244461029318</v>
       </c>
-      <c r="F467">
-        <v>15.153547146714773</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>44253</v>
       </c>
@@ -9772,11 +8368,8 @@
       <c r="E468">
         <v>0.97374704445544258</v>
       </c>
-      <c r="F468">
-        <v>14.061842975808398</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>44253</v>
       </c>
@@ -9792,11 +8385,8 @@
       <c r="E469">
         <v>1.2515940940147217</v>
       </c>
-      <c r="F469">
-        <v>14.794273462514916</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>44253</v>
       </c>
@@ -9812,11 +8402,8 @@
       <c r="E470">
         <v>0.98895837262953246</v>
       </c>
-      <c r="F470">
-        <v>13.834683946299281</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>44253</v>
       </c>
@@ -9832,11 +8419,8 @@
       <c r="E471">
         <v>1.0723537868923612</v>
       </c>
-      <c r="F471">
-        <v>13.988000819254987</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>44253</v>
       </c>
@@ -9852,11 +8436,8 @@
       <c r="E472">
         <v>1.1704354117369653</v>
       </c>
-      <c r="F472">
-        <v>14.481505146598165</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>44253</v>
       </c>
@@ -9872,11 +8453,8 @@
       <c r="E473">
         <v>1.1812662733885217</v>
       </c>
-      <c r="F473">
-        <v>13.927704071233446</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>44253</v>
       </c>
@@ -9892,11 +8470,8 @@
       <c r="E474">
         <v>1.1843511136681186</v>
       </c>
-      <c r="F474">
-        <v>14.267184977106515</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>44253</v>
       </c>
@@ -9912,11 +8487,8 @@
       <c r="E475">
         <v>1.106563757060596</v>
       </c>
-      <c r="F475">
-        <v>13.973253647256051</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>44253</v>
       </c>
@@ -9932,11 +8504,8 @@
       <c r="E476">
         <v>0.96595268341152352</v>
       </c>
-      <c r="F476">
-        <v>14.198762897914474</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>44253</v>
       </c>
@@ -9952,11 +8521,8 @@
       <c r="E477">
         <v>1.1907007257370124</v>
       </c>
-      <c r="F477">
-        <v>15.930852743443719</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>44253</v>
       </c>
@@ -9972,11 +8538,8 @@
       <c r="E478">
         <v>1.1663632225762404</v>
       </c>
-      <c r="F478">
-        <v>14.958340434881054</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>44253</v>
       </c>
@@ -9992,11 +8555,8 @@
       <c r="E479">
         <v>1.1138046796868464</v>
       </c>
-      <c r="F479">
-        <v>14.680721637099664</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>44253</v>
       </c>
@@ -10012,11 +8572,8 @@
       <c r="E480">
         <v>1.0988740034519602</v>
       </c>
-      <c r="F480">
-        <v>13.377048808582551</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>44253</v>
       </c>
@@ -10032,11 +8589,8 @@
       <c r="E481">
         <v>1.0534606850250339</v>
       </c>
-      <c r="F481">
-        <v>13.566209002652473</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>44270</v>
       </c>
@@ -10052,11 +8606,8 @@
       <c r="E482">
         <v>1.2006460926423359</v>
       </c>
-      <c r="F482">
-        <v>15.405095687687037</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>44270</v>
       </c>
@@ -10072,11 +8623,8 @@
       <c r="E483">
         <v>1.2415647506713865</v>
       </c>
-      <c r="F483">
-        <v>15.30963757251431</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>44270</v>
       </c>
@@ -10092,11 +8640,8 @@
       <c r="E484">
         <v>1.2094043746499386</v>
       </c>
-      <c r="F484">
-        <v>15.075103706922365</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>44270</v>
       </c>
@@ -10112,11 +8657,8 @@
       <c r="E485">
         <v>1.0579791375918324</v>
       </c>
-      <c r="F485">
-        <v>14.858148212866629</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>44270</v>
       </c>
@@ -10132,11 +8674,8 @@
       <c r="E486">
         <v>1.1220075880386802</v>
       </c>
-      <c r="F486">
-        <v>15.154197914560779</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>44270</v>
       </c>
@@ -10152,11 +8691,8 @@
       <c r="E487">
         <v>0.89983999999999997</v>
       </c>
-      <c r="F487">
-        <v>15.201000958910003</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>44270</v>
       </c>
@@ -10172,11 +8708,8 @@
       <c r="E488">
         <v>0.94652746265105914</v>
       </c>
-      <c r="F488">
-        <v>15.663711824331513</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>44270</v>
       </c>
@@ -10192,11 +8725,8 @@
       <c r="E489">
         <v>1.0602275028863781</v>
       </c>
-      <c r="F489">
-        <v>14.585810441797019</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>44270</v>
       </c>
@@ -10212,11 +8742,8 @@
       <c r="E490">
         <v>0.99549211119459058</v>
       </c>
-      <c r="F490">
-        <v>14.974209495798712</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>44270</v>
       </c>
@@ -10232,11 +8759,8 @@
       <c r="E491">
         <v>0.94500000000000006</v>
       </c>
-      <c r="F491">
-        <v>14.782875798404042</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44270</v>
       </c>
@@ -10252,11 +8776,8 @@
       <c r="E492">
         <v>1.2185185185185186</v>
       </c>
-      <c r="F492">
-        <v>15.061045061339552</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>44270</v>
       </c>
@@ -10272,11 +8793,8 @@
       <c r="E493">
         <v>0.93472407382773048</v>
       </c>
-      <c r="F493">
-        <v>15.596011087615782</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>44270</v>
       </c>
@@ -10292,11 +8810,8 @@
       <c r="E494">
         <v>0.99410923111024529</v>
       </c>
-      <c r="F494">
-        <v>13.546348247163021</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>44270</v>
       </c>
@@ -10312,11 +8827,8 @@
       <c r="E495">
         <v>0.95890720763507253</v>
       </c>
-      <c r="F495">
-        <v>14.288116687532929</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>44270</v>
       </c>
@@ -10332,11 +8844,8 @@
       <c r="E496">
         <v>1.0187649012353475</v>
       </c>
-      <c r="F496">
-        <v>15.897928939985897</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>44270</v>
       </c>
@@ -10352,11 +8861,8 @@
       <c r="E497">
         <v>0.92294716955176792</v>
       </c>
-      <c r="F497">
-        <v>14.935914723029287</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>44270</v>
       </c>
@@ -10372,11 +8878,8 @@
       <c r="E498">
         <v>0.90923976382882399</v>
       </c>
-      <c r="F498">
-        <v>14.615676923423104</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>44270</v>
       </c>
@@ -10392,11 +8895,8 @@
       <c r="E499">
         <v>0.73428216575475813</v>
       </c>
-      <c r="F499">
-        <v>15.181903822134499</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>44270</v>
       </c>
@@ -10412,11 +8912,8 @@
       <c r="E500">
         <v>0.95339853702638289</v>
       </c>
-      <c r="F500">
-        <v>15.012584008737779</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>44270</v>
       </c>
@@ -10432,11 +8929,8 @@
       <c r="E501">
         <v>0.72445732109505645</v>
       </c>
-      <c r="F501">
-        <v>14.858148212866627</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>44270</v>
       </c>
@@ -10452,11 +8946,8 @@
       <c r="E502">
         <v>1.2193263222069806</v>
       </c>
-      <c r="F502">
-        <v>15.115247407120922</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>44270</v>
       </c>
@@ -10472,11 +8963,8 @@
       <c r="E503">
         <v>1.1660632602752607</v>
       </c>
-      <c r="F503">
-        <v>14.189425361863476</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>44270</v>
       </c>
@@ -10492,11 +8980,8 @@
       <c r="E504">
         <v>1.1851851851851851</v>
       </c>
-      <c r="F504">
-        <v>16.575782072439111</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>44270</v>
       </c>
@@ -10512,11 +8997,8 @@
       <c r="E505">
         <v>1.1107438016528925</v>
       </c>
-      <c r="F505">
-        <v>15.782855637063504</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>44270</v>
       </c>
@@ -10532,11 +9014,8 @@
       <c r="E506">
         <v>1.2290809327846364</v>
       </c>
-      <c r="F506">
-        <v>14.85538268430663</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>44270</v>
       </c>
@@ -10552,11 +9031,8 @@
       <c r="E507">
         <v>1.1095807287402599</v>
       </c>
-      <c r="F507">
-        <v>15.32043382945854</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>44270</v>
       </c>
@@ -10572,11 +9048,8 @@
       <c r="E508">
         <v>0.93652297873029755</v>
       </c>
-      <c r="F508">
-        <v>16.382600601844498</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>44270</v>
       </c>
@@ -10592,11 +9065,8 @@
       <c r="E509">
         <v>1.051840721262209</v>
       </c>
-      <c r="F509">
-        <v>15.348363857788884</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>44270</v>
       </c>
@@ -10612,11 +9082,8 @@
       <c r="E510">
         <v>1.1229888780909187</v>
       </c>
-      <c r="F510">
-        <v>14.882052380911034</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>44270</v>
       </c>
@@ -10632,11 +9099,8 @@
       <c r="E511">
         <v>0.92975206611570249</v>
       </c>
-      <c r="F511">
-        <v>14.878848896616912</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>44270</v>
       </c>
@@ -10652,11 +9116,8 @@
       <c r="E512">
         <v>1.189889258279244</v>
       </c>
-      <c r="F512">
-        <v>15.68837680134054</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>44270</v>
       </c>
@@ -10672,11 +9133,8 @@
       <c r="E513">
         <v>1.1366341375019855</v>
       </c>
-      <c r="F513">
-        <v>17.176316607802313</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>44270</v>
       </c>
@@ -10692,11 +9150,8 @@
       <c r="E514">
         <v>1.2039681429816838</v>
       </c>
-      <c r="F514">
-        <v>15.081954394580691</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>44270</v>
       </c>
@@ -10712,11 +9167,8 @@
       <c r="E515">
         <v>1.1151974696090827</v>
       </c>
-      <c r="F515">
-        <v>15.676150626918027</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>44270</v>
       </c>
@@ -10732,11 +9184,8 @@
       <c r="E516">
         <v>1.3654984069185254</v>
       </c>
-      <c r="F516">
-        <v>14.189425361863471</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>44270</v>
       </c>
@@ -10752,11 +9201,8 @@
       <c r="E517">
         <v>0.92275925867297171</v>
       </c>
-      <c r="F517">
-        <v>14.991113834668923</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>44270</v>
       </c>
@@ -10772,11 +9218,8 @@
       <c r="E518">
         <v>0.92996977105327272</v>
       </c>
-      <c r="F518">
-        <v>15.274534939265973</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>44270</v>
       </c>
@@ -10792,11 +9235,8 @@
       <c r="E519">
         <v>0.93934911242603536</v>
       </c>
-      <c r="F519">
-        <v>14.538570132405191</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>44270</v>
       </c>
@@ -10812,11 +9252,8 @@
       <c r="E520">
         <v>1.1248091557209021</v>
       </c>
-      <c r="F520">
-        <v>13.793350971873549</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>44270</v>
       </c>
@@ -10832,11 +9269,8 @@
       <c r="E521">
         <v>1.1788859708942119</v>
       </c>
-      <c r="F521">
-        <v>14.312926264575196</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>44285</v>
       </c>
@@ -10852,11 +9286,8 @@
       <c r="E522">
         <v>1.0865554143261307</v>
       </c>
-      <c r="F522">
-        <v>18.775763579120433</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>44285</v>
       </c>
@@ -10872,11 +9303,8 @@
       <c r="E523">
         <v>1.0669105319311081</v>
       </c>
-      <c r="F523">
-        <v>17.897698527611563</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>44285</v>
       </c>
@@ -10892,11 +9320,8 @@
       <c r="E524">
         <v>1.0892033067574809</v>
       </c>
-      <c r="F524">
-        <v>18.705935751261254</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>44285</v>
       </c>
@@ -10912,11 +9337,8 @@
       <c r="E525">
         <v>0.93989737336788082</v>
       </c>
-      <c r="F525">
-        <v>16.131832034376053</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>44285</v>
       </c>
@@ -10932,11 +9354,8 @@
       <c r="E526">
         <v>1.0169614324797802</v>
       </c>
-      <c r="F526">
-        <v>17.951446340684189</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>44285</v>
       </c>
@@ -10952,11 +9371,8 @@
       <c r="E527">
         <v>1.0241238051888939</v>
       </c>
-      <c r="F527">
-        <v>17.324331912312982</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>44285</v>
       </c>
@@ -10972,11 +9388,8 @@
       <c r="E528">
         <v>0.91785270719344758</v>
       </c>
-      <c r="F528">
-        <v>17.378175135323549</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>44285</v>
       </c>
@@ -10992,11 +9405,8 @@
       <c r="E529">
         <v>0.9631777159203645</v>
       </c>
-      <c r="F529">
-        <v>17.974859948784641</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>44285</v>
       </c>
@@ -11012,11 +9422,8 @@
       <c r="E530">
         <v>0.96530000508052627</v>
       </c>
-      <c r="F530">
-        <v>17.921502310090883</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>44285</v>
       </c>
@@ -11032,11 +9439,8 @@
       <c r="E531">
         <v>0.78401218234314096</v>
       </c>
-      <c r="F531">
-        <v>17.141167320710053</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>44285</v>
       </c>
@@ -11052,11 +9456,8 @@
       <c r="E532">
         <v>0.92091041756426661</v>
       </c>
-      <c r="F532">
-        <v>17.263614867908373</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>44285</v>
       </c>
@@ -11072,11 +9473,8 @@
       <c r="E533">
         <v>0.90761198814872845</v>
       </c>
-      <c r="F533">
-        <v>18.317737382212847</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>44285</v>
       </c>
@@ -11092,11 +9490,8 @@
       <c r="E534">
         <v>0.93989737336788082</v>
       </c>
-      <c r="F534">
-        <v>17.201534450566331</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>44285</v>
       </c>
@@ -11112,11 +9507,8 @@
       <c r="E535">
         <v>1.1087813296355691</v>
       </c>
-      <c r="F535">
-        <v>19.72412070627362</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>44285</v>
       </c>
@@ -11132,11 +9524,8 @@
       <c r="E536">
         <v>1.0130484800324506</v>
       </c>
-      <c r="F536">
-        <v>19.081224684882315</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>44285</v>
       </c>
@@ -11152,11 +9541,8 @@
       <c r="E537">
         <v>1.0705174927113703</v>
       </c>
-      <c r="F537">
-        <v>18.27194688832023</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>44285</v>
       </c>
@@ -11172,11 +9558,8 @@
       <c r="E538">
         <v>1.0621217427381455</v>
       </c>
-      <c r="F538">
-        <v>16.416863561533301</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>44285</v>
       </c>
@@ -11192,11 +9575,8 @@
       <c r="E539">
         <v>1.056</v>
       </c>
-      <c r="F539">
-        <v>16.399010490922763</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>44285</v>
       </c>
@@ -11212,11 +9592,8 @@
       <c r="E540">
         <v>0.95712824968968968</v>
       </c>
-      <c r="F540">
-        <v>15.438251545795458</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>44285</v>
       </c>
@@ -11232,11 +9609,8 @@
       <c r="E541">
         <v>0.88188438780154765</v>
       </c>
-      <c r="F541">
-        <v>15.40660154795891</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>44285</v>
       </c>
@@ -11252,11 +9626,8 @@
       <c r="E542">
         <v>0.83199999999999996</v>
       </c>
-      <c r="F542">
-        <v>17.84924167062605</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>44285</v>
       </c>
@@ -11272,11 +9643,8 @@
       <c r="E543">
         <v>1.0241238051888939</v>
       </c>
-      <c r="F543">
-        <v>16.191797001033596</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>44285</v>
       </c>
@@ -11292,11 +9660,8 @@
       <c r="E544">
         <v>1.1423788786618876</v>
       </c>
-      <c r="F544">
-        <v>18.317737382212847</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>44285</v>
       </c>
@@ -11312,11 +9677,8 @@
       <c r="E545">
         <v>1.1593805839782165</v>
       </c>
-      <c r="F545">
-        <v>18.395491919727284</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>44285</v>
       </c>
@@ -11332,11 +9694,8 @@
       <c r="E546">
         <v>1.0013757769542395</v>
       </c>
-      <c r="F546">
-        <v>19.121652178467514</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>44285</v>
       </c>
@@ -11352,11 +9711,8 @@
       <c r="E547">
         <v>1.1180875356197844</v>
       </c>
-      <c r="F547">
-        <v>18.152388025498162</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>44285</v>
       </c>
@@ -11372,11 +9728,8 @@
       <c r="E548">
         <v>1.0683947562589051</v>
       </c>
-      <c r="F548">
-        <v>17.903778879729423</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>44285</v>
       </c>
@@ -11392,11 +9745,8 @@
       <c r="E549">
         <v>1.1034202325411868</v>
       </c>
-      <c r="F549">
-        <v>18.38659439820773</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>44285</v>
       </c>
@@ -11412,11 +9762,8 @@
       <c r="E550">
         <v>1.0321227565521733</v>
       </c>
-      <c r="F550">
-        <v>17.198530551723987</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>44285</v>
       </c>
@@ -11432,11 +9779,8 @@
       <c r="E551">
         <v>1.081271459245134</v>
       </c>
-      <c r="F551">
-        <v>16.488788484037283</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>44285</v>
       </c>
@@ -11452,11 +9796,8 @@
       <c r="E552">
         <v>0.87483553092018718</v>
       </c>
-      <c r="F552">
-        <v>16.456801184963929</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>44285</v>
       </c>
@@ -11472,11 +9813,8 @@
       <c r="E553">
         <v>0.91033227127901672</v>
       </c>
-      <c r="F553">
-        <v>16.797507961879933</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>44285</v>
       </c>
@@ -11492,11 +9830,8 @@
       <c r="E554">
         <v>1.0209770481672791</v>
       </c>
-      <c r="F554">
-        <v>16.903068482855979</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>44285</v>
       </c>
@@ -11512,11 +9847,8 @@
       <c r="E555">
         <v>1.1275575054327771</v>
       </c>
-      <c r="F555">
-        <v>18.072955024581557</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>44285</v>
       </c>
@@ -11532,11 +9864,8 @@
       <c r="E556">
         <v>1.0442988352694098</v>
       </c>
-      <c r="F556">
-        <v>14.765677604988646</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>44285</v>
       </c>
@@ -11552,11 +9881,8 @@
       <c r="E557">
         <v>1.2896552187376156</v>
       </c>
-      <c r="F557">
-        <v>16.013145029537341</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>44285</v>
       </c>
@@ -11572,11 +9898,8 @@
       <c r="E558">
         <v>1.024</v>
       </c>
-      <c r="F558">
-        <v>16.508702868788468</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>44285</v>
       </c>
@@ -11592,11 +9915,8 @@
       <c r="E559">
         <v>0.96168294515401964</v>
       </c>
-      <c r="F559">
-        <v>16.209110271666475</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>44285</v>
       </c>
@@ -11612,11 +9932,8 @@
       <c r="E560">
         <v>0.96296296296296302</v>
       </c>
-      <c r="F560">
-        <v>15.328372027307699</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>44285</v>
       </c>
@@ -11632,11 +9949,8 @@
       <c r="E561">
         <v>1.0711903359155512</v>
       </c>
-      <c r="F561">
-        <v>16.687600280752509</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>44301</v>
       </c>
@@ -11652,11 +9966,8 @@
       <c r="E562">
         <v>1.2095489570340132</v>
       </c>
-      <c r="F562">
-        <v>18.673608375996416</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>44301</v>
       </c>
@@ -11672,11 +9983,8 @@
       <c r="E563">
         <v>1.1304201619380945</v>
       </c>
-      <c r="F563">
-        <v>17.850262213209245</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>44301</v>
       </c>
@@ -11692,11 +10000,8 @@
       <c r="E564">
         <v>0.90462944116516275</v>
       </c>
-      <c r="F564">
-        <v>17.983997232614129</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>44301</v>
       </c>
@@ -11712,11 +10017,8 @@
       <c r="E565">
         <v>1.2659522151729241</v>
       </c>
-      <c r="F565">
-        <v>16.907619560760686</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>44301</v>
       </c>
@@ -11732,11 +10034,8 @@
       <c r="E566">
         <v>1.2863552078442648</v>
       </c>
-      <c r="F566">
-        <v>18.129686219979718</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>44301</v>
       </c>
@@ -11752,11 +10051,8 @@
       <c r="E567">
         <v>1.051714147989814</v>
       </c>
-      <c r="F567">
-        <v>16.704411394378724</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>44301</v>
       </c>
@@ -11772,11 +10068,8 @@
       <c r="E568">
         <v>1.0554010146926898</v>
       </c>
-      <c r="F568">
-        <v>17.229565678545704</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>44301</v>
       </c>
@@ -11792,11 +10085,8 @@
       <c r="E569">
         <v>1.0497535641757887</v>
       </c>
-      <c r="F569">
-        <v>16.884582634992935</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>44301</v>
       </c>
@@ -11812,11 +10102,8 @@
       <c r="E570">
         <v>1.1458639588092061</v>
       </c>
-      <c r="F570">
-        <v>15.623957617717286</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>44301</v>
       </c>
@@ -11832,11 +10119,8 @@
       <c r="E571">
         <v>0.90558064069830335</v>
       </c>
-      <c r="F571">
-        <v>15.901233131200986</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>44301</v>
       </c>
@@ -11852,11 +10136,8 @@
       <c r="E572">
         <v>1.1616253644314869</v>
       </c>
-      <c r="F572">
-        <v>18.327493128408026</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>44301</v>
       </c>
@@ -11872,11 +10153,8 @@
       <c r="E573">
         <v>1.1069640418752846</v>
       </c>
-      <c r="F573">
-        <v>17.031174968199188</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>44301</v>
       </c>
@@ -11892,11 +10170,8 @@
       <c r="E574">
         <v>1.0566971078986536</v>
       </c>
-      <c r="F574">
-        <v>17.372602665417372</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>44301</v>
       </c>
@@ -11912,11 +10187,8 @@
       <c r="E575">
         <v>1.2071793002915452</v>
       </c>
-      <c r="F575">
-        <v>16.413263968806433</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>44301</v>
       </c>
@@ -11932,11 +10204,8 @@
       <c r="E576">
         <v>1.2359619140625</v>
       </c>
-      <c r="F576">
-        <v>18.397989617322366</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>44301</v>
       </c>
@@ -11952,11 +10221,8 @@
       <c r="E577">
         <v>1.2193263222069806</v>
       </c>
-      <c r="F577">
-        <v>19.275429730949288</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>44301</v>
       </c>
@@ -11972,11 +10238,8 @@
       <c r="E578">
         <v>1.2091652695219226</v>
       </c>
-      <c r="F578">
-        <v>17.837686343424796</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>44301</v>
       </c>
@@ -11992,11 +10255,8 @@
       <c r="E579">
         <v>1.2317684275356233</v>
       </c>
-      <c r="F579">
-        <v>17.923893154796026</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>44301</v>
       </c>
@@ -12012,11 +10272,8 @@
       <c r="E580">
         <v>1.0535205536095462</v>
       </c>
-      <c r="F580">
-        <v>18.949076252558019</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>44301</v>
       </c>
@@ -12032,11 +10289,8 @@
       <c r="E581">
         <v>1.0660543687728075</v>
       </c>
-      <c r="F581">
-        <v>18.807703090267307</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>44301</v>
       </c>
@@ -12052,11 +10306,8 @@
       <c r="E582">
         <v>1.0842532619898395</v>
       </c>
-      <c r="F582">
-        <v>18.301301785662758</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>44301</v>
       </c>
@@ -12072,11 +10323,8 @@
       <c r="E583">
         <v>1.2084186499278304</v>
       </c>
-      <c r="F583">
-        <v>17.297013895314247</v>
-      </c>
-    </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>44301</v>
       </c>
@@ -12092,11 +10340,8 @@
       <c r="E584">
         <v>1.1553161334524473</v>
       </c>
-      <c r="F584">
-        <v>18.866693332632785</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>44301</v>
       </c>
@@ -12112,11 +10357,8 @@
       <c r="E585">
         <v>1.2234865725989985</v>
       </c>
-      <c r="F585">
-        <v>19.308595689865111</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>44301</v>
       </c>
@@ -12132,11 +10374,8 @@
       <c r="E586">
         <v>1.329950825068243</v>
       </c>
-      <c r="F586">
-        <v>19.659922331835613</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>44301</v>
       </c>
@@ -12152,11 +10391,8 @@
       <c r="E587">
         <v>1.3393191500610184</v>
       </c>
-      <c r="F587">
-        <v>19.400785329338344</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>44301</v>
       </c>
@@ -12172,11 +10408,8 @@
       <c r="E588">
         <v>1.051714147989814</v>
       </c>
-      <c r="F588">
-        <v>18.558716749113142</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>44301</v>
       </c>
@@ -12192,11 +10425,8 @@
       <c r="E589">
         <v>1.2663275587579033</v>
       </c>
-      <c r="F589">
-        <v>17.662304375993653</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>44301</v>
       </c>
@@ -12212,11 +10442,8 @@
       <c r="E590">
         <v>1.2239798043332286</v>
       </c>
-      <c r="F590">
-        <v>16.983573406688667</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>44301</v>
       </c>
@@ -12232,11 +10459,8 @@
       <c r="E591">
         <v>1.1458639588092061</v>
       </c>
-      <c r="F591">
-        <v>17.575605821022087</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>44301</v>
       </c>
@@ -12252,11 +10476,8 @@
       <c r="E592">
         <v>1.2380518889394629</v>
       </c>
-      <c r="F592">
-        <v>19.851458294402917</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>44301</v>
       </c>
@@ -12272,11 +10493,8 @@
       <c r="E593">
         <v>1.0717985018816463</v>
       </c>
-      <c r="F593">
-        <v>19.003998199174838</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>44301</v>
       </c>
@@ -12292,11 +10510,8 @@
       <c r="E594">
         <v>1.1677804572740325</v>
       </c>
-      <c r="F594">
-        <v>18.120488910153007</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>44301</v>
       </c>
@@ -12312,11 +10527,8 @@
       <c r="E595">
         <v>1.1932701995987933</v>
       </c>
-      <c r="F595">
-        <v>18.972240232225968</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>44301</v>
       </c>
@@ -12332,11 +10544,8 @@
       <c r="E596">
         <v>1.117715795356399</v>
       </c>
-      <c r="F596">
-        <v>18.284287561289165</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>44301</v>
       </c>
@@ -12352,11 +10561,8 @@
       <c r="E597">
         <v>1.048900462962963</v>
       </c>
-      <c r="F597">
-        <v>17.911494261630388</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>44301</v>
       </c>
@@ -12372,11 +10578,8 @@
       <c r="E598">
         <v>1.2159608072922403</v>
       </c>
-      <c r="F598">
-        <v>18.090340181520919</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>44301</v>
       </c>
@@ -12392,11 +10595,8 @@
       <c r="E599">
         <v>1.2580029957244669</v>
       </c>
-      <c r="F599">
-        <v>17.384843910652943</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>44301</v>
       </c>
@@ -12412,11 +10612,8 @@
       <c r="E600">
         <v>1.3216965296654786</v>
       </c>
-      <c r="F600">
-        <v>18.074344003013742</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>44301</v>
       </c>
@@ -12432,11 +10629,8 @@
       <c r="E601">
         <v>0.94258519188059475</v>
       </c>
-      <c r="F601">
-        <v>17.517445648228382</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>44316</v>
       </c>
@@ -12453,7 +10647,7 @@
         <v>1.2838467317806161</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>44316</v>
       </c>
@@ -12470,7 +10664,7 @@
         <v>1.251220703125</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>44316</v>
       </c>
@@ -12487,7 +10681,7 @@
         <v>1.2777777777777779</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>44316</v>
       </c>
@@ -12504,7 +10698,7 @@
         <v>1.1342930029154519</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>44316</v>
       </c>
@@ -12521,7 +10715,7 @@
         <v>1.0690251957192716</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>44316</v>
       </c>
@@ -12538,7 +10732,7 @@
         <v>0.97455087395311912</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>44316</v>
       </c>
